--- a/restaurantData/Restaurant_DB.xlsx
+++ b/restaurantData/Restaurant_DB.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/normanschmickler/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13C8CC3D-25B3-8445-AAA5-A35A5BF72C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04757E8A-D0ED-6E4E-A43C-351DE8677651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{106D1393-4DC9-4DB8-A467-A49FAB233FCB}"/>
+    <workbookView xWindow="20" yWindow="520" windowWidth="28800" windowHeight="16460" xr2:uid="{106D1393-4DC9-4DB8-A467-A49FAB233FCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Restaurants" sheetId="3" r:id="rId1"/>
     <sheet name="Gerichte" sheetId="1" r:id="rId2"/>
-    <sheet name="Getränke" sheetId="2" r:id="rId3"/>
-    <sheet name="Besonderheiten" sheetId="4" r:id="rId4"/>
-    <sheet name="Allergene" sheetId="7" r:id="rId5"/>
-    <sheet name="Notizen" sheetId="5" r:id="rId6"/>
-    <sheet name="Kundendetails " sheetId="6" r:id="rId7"/>
+    <sheet name="Kategorie" sheetId="9" r:id="rId3"/>
+    <sheet name="Zutaten" sheetId="8" r:id="rId4"/>
+    <sheet name="Getränke" sheetId="2" r:id="rId5"/>
+    <sheet name="Besonderheiten" sheetId="4" r:id="rId6"/>
+    <sheet name="Allergene" sheetId="7" r:id="rId7"/>
+    <sheet name="Notizen" sheetId="5" r:id="rId8"/>
+    <sheet name="Kundendetails " sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="874">
   <si>
     <t>Restaurant_ID</t>
   </si>
@@ -1246,9 +1248,6 @@
     <t>https://th.bing.com/th/id/OIP.0V3y_iSEDExdJhyrmKVBNgHaGc?pid=ImgDet&amp;rs=1</t>
   </si>
   <si>
-    <t>Pizza, Käse, Mozarella, Tomate, Wurst, Salami</t>
-  </si>
-  <si>
     <t>PIZZA VEGATARIANA</t>
   </si>
   <si>
@@ -2651,6 +2650,48 @@
   </si>
   <si>
     <t>durchgehend geöffnet</t>
+  </si>
+  <si>
+    <t>Zutaten_ID</t>
+  </si>
+  <si>
+    <t>Kartoffel</t>
+  </si>
+  <si>
+    <t>Kategorie_ID</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>Fleisch</t>
+  </si>
+  <si>
+    <t>Carbs</t>
+  </si>
+  <si>
+    <t>Bitte wähle deine Grundlage</t>
+  </si>
+  <si>
+    <t>Käse, Mozarella, Tomate, Fleisch, Salami, Weizen</t>
+  </si>
+  <si>
+    <t>Beispiel</t>
+  </si>
+  <si>
+    <t>Kartoffel, reis, weizen, nudel, linse</t>
+  </si>
+  <si>
+    <t>Linse, Tofu, Fleisch, Salami, Bohne</t>
+  </si>
+  <si>
+    <t>Green/Extra</t>
+  </si>
+  <si>
+    <t>Salat, Erdnuss, Basilikum, Nüsse, Käse, Gemüse, Paprika</t>
+  </si>
+  <si>
+    <t>Extra button für kein carb, protein oder green</t>
   </si>
 </sst>
 </file>
@@ -2842,7 +2883,7 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="53">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2914,6 +2955,39 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3039,50 +3113,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80FDB988-FCAC-8D44-99D6-7DFF600B82CE}" name="Tabelle1" displayName="Tabelle1" ref="A1:N19" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80FDB988-FCAC-8D44-99D6-7DFF600B82CE}" name="Tabelle1" displayName="Tabelle1" ref="A1:N19" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="A1:N19" xr:uid="{80FDB988-FCAC-8D44-99D6-7DFF600B82CE}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{55A32A4D-2FF6-6A4E-815C-A2710FF99FDF}" name="Restaurant_ID" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{6E4C25BB-32A3-7B4B-A9AC-13B82E8BF2F1}" name="Restaurant_Name" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{128C870C-3194-E84E-83F4-79DB4C4E7BA0}" name="Kategorie" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{3408C74D-0A76-5F40-BD7D-CD57DAC13688}" name="Beschreibung" dataDxfId="36"/>
-    <tableColumn id="13" xr3:uid="{09E09216-F076-EF47-B03C-46543813370D}" name="Öffnet_Mittags" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{37FAB9EF-BE2C-6549-B0B2-8C7258215DF1}" name="Schließt_Mittags" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{A3BAD815-DDD1-584F-913C-BEBC1E18A73D}" name="Öffnet_Abends" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{FD4D8756-8444-EE4A-A5DD-41872DCC4B47}" name="Schließt_Abends" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{A4AB5AB3-CC69-2346-87DA-103B4479D1F7}" name="Öffnungstage" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{4EB62772-A5B6-3447-BBDA-4F9E1D531970}" name="Preiskategorie" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{5190CBEF-FD7B-A04E-84EE-B3EED4FD94EA}" name="Bewertung" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{05D6B2BC-6F3F-0F4D-81D9-48B283052F62}" name="Adresse" dataDxfId="28"/>
-    <tableColumn id="15" xr3:uid="{6C452FD0-68CB-574B-AEFC-15A45D09A146}" name="Telefon" dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{F036DC08-DE13-9E4C-8BAB-A155392C2417}" name="Website" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{55A32A4D-2FF6-6A4E-815C-A2710FF99FDF}" name="Restaurant_ID" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{6E4C25BB-32A3-7B4B-A9AC-13B82E8BF2F1}" name="Restaurant_Name" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{128C870C-3194-E84E-83F4-79DB4C4E7BA0}" name="Kategorie" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{3408C74D-0A76-5F40-BD7D-CD57DAC13688}" name="Beschreibung" dataDxfId="47"/>
+    <tableColumn id="13" xr3:uid="{09E09216-F076-EF47-B03C-46543813370D}" name="Öffnet_Mittags" dataDxfId="46"/>
+    <tableColumn id="12" xr3:uid="{37FAB9EF-BE2C-6549-B0B2-8C7258215DF1}" name="Schließt_Mittags" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{A3BAD815-DDD1-584F-913C-BEBC1E18A73D}" name="Öffnet_Abends" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{FD4D8756-8444-EE4A-A5DD-41872DCC4B47}" name="Schließt_Abends" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{A4AB5AB3-CC69-2346-87DA-103B4479D1F7}" name="Öffnungstage" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{4EB62772-A5B6-3447-BBDA-4F9E1D531970}" name="Preiskategorie" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{5190CBEF-FD7B-A04E-84EE-B3EED4FD94EA}" name="Bewertung" dataDxfId="40"/>
+    <tableColumn id="10" xr3:uid="{05D6B2BC-6F3F-0F4D-81D9-48B283052F62}" name="Adresse" dataDxfId="39"/>
+    <tableColumn id="15" xr3:uid="{6C452FD0-68CB-574B-AEFC-15A45D09A146}" name="Telefon" dataDxfId="38"/>
+    <tableColumn id="14" xr3:uid="{F036DC08-DE13-9E4C-8BAB-A155392C2417}" name="Website" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B3CAD1EC-7155-BE41-89CD-997BF4A0D027}" name="Tabelle3" displayName="Tabelle3" ref="A1:L101" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B3CAD1EC-7155-BE41-89CD-997BF4A0D027}" name="Tabelle3" displayName="Tabelle3" ref="A1:L101" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:L101" xr:uid="{B3CAD1EC-7155-BE41-89CD-997BF4A0D027}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{CFA5AF43-D759-BF47-A92B-03D5569460AD}" name="Gericht_ID" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{CA124AC5-0B98-0D48-B262-D3055FC1D666}" name="Kategorie" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{8E8DA039-2403-E042-B872-C45B85971D05}" name="Name" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{FCCDA6D9-059C-BA49-BCEB-8DCE30979128}" name="Preis" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{B87CBEA8-0855-D048-B466-05B1A4BA8431}" name="veg" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{15116D70-7FB7-7B41-9E2D-57E36F08539B}" name="Besonderheit" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{6149EE81-7057-D34A-9583-8D862C7228E3}" name="Allergene" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{84779147-51E7-DE4B-B3B9-99F094548C15}" name="Gang" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{6B937401-4F11-B44D-BDD9-8084A3AEC23F}" name="Beschreibung" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{C5B87709-C104-334F-B54D-D9AE69ADED8C}" name="Bild" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{EEF2CE40-FEF7-6D41-BF14-43F7949A9AEB}" name="Zutaten" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{484E0797-2CF8-4A6F-98D0-B629421F46E3}" name="FK_Restaurant" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{CFA5AF43-D759-BF47-A92B-03D5569460AD}" name="Gericht_ID" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{CA124AC5-0B98-0D48-B262-D3055FC1D666}" name="Kategorie" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{8E8DA039-2403-E042-B872-C45B85971D05}" name="Name" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{FCCDA6D9-059C-BA49-BCEB-8DCE30979128}" name="Preis" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{B87CBEA8-0855-D048-B466-05B1A4BA8431}" name="veg" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{15116D70-7FB7-7B41-9E2D-57E36F08539B}" name="Besonderheit" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{6149EE81-7057-D34A-9583-8D862C7228E3}" name="Allergene" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{84779147-51E7-DE4B-B3B9-99F094548C15}" name="Gang" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{6B937401-4F11-B44D-BDD9-8084A3AEC23F}" name="Beschreibung" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{C5B87709-C104-334F-B54D-D9AE69ADED8C}" name="Bild" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{EEF2CE40-FEF7-6D41-BF14-43F7949A9AEB}" name="Zutaten" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{484E0797-2CF8-4A6F-98D0-B629421F46E3}" name="FK_Restaurant" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9B6555A2-C786-7B40-A974-B41D15183573}" name="Tabelle57" displayName="Tabelle57" ref="A1:D14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:D14" xr:uid="{B0AE1103-1826-F645-B10B-83B5258131B7}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{274AA7BB-D327-9F4B-98F2-A1EDC7D7A378}" name="Kategorie_ID" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{5DF70DE5-ECFE-514A-AAE4-0AD449EE91F9}" name="Name" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{A66ACFD1-1291-8D48-8033-43AA0CD9395B}" name="Beschreibung" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{BD6C68A9-E579-3348-8F25-A2A208F21A06}" name="Beispiel" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B0AE1103-1826-F645-B10B-83B5258131B7}" name="Tabelle5" displayName="Tabelle5" ref="A1:C15" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:C15" xr:uid="{B0AE1103-1826-F645-B10B-83B5258131B7}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{769D3B1F-BDD9-9842-8D20-AF6022CE7F40}" name="Zutaten_ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{A2F4A89D-E730-394F-B34D-6DEF77C752E3}" name="Name" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{49E9EC0A-978D-EF48-B509-9FD05461693B}" name="Kategorie" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8EE87F00-AE3F-4A3F-8E64-0260D4DB755C}" name="Tabelle7" displayName="Tabelle7" ref="A1:E53" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10">
   <autoFilter ref="A1:E53" xr:uid="{8EE87F00-AE3F-4A3F-8E64-0260D4DB755C}"/>
   <tableColumns count="5">
@@ -3096,7 +3195,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12FC1B5A-ABE0-4C4C-9FD4-80616E6F351F}" name="Tabelle2" displayName="Tabelle2" ref="A1:B49" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:B49" xr:uid="{12FC1B5A-ABE0-4C4C-9FD4-80616E6F351F}"/>
   <tableColumns count="2">
@@ -3107,7 +3206,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6F512E60-FBCC-9F46-897C-F96C5CA98126}" name="Tabelle25" displayName="Tabelle25" ref="A1:C24" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C24" xr:uid="{12FC1B5A-ABE0-4C4C-9FD4-80616E6F351F}"/>
   <tableColumns count="3">
@@ -3418,7 +3517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721D09D1-6061-4240-90BA-F30DB895FBD6}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -3593,10 +3692,10 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H4" s="5">
         <v>0.9375</v>
@@ -3638,10 +3737,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H5" s="5">
         <v>0.91666666666666663</v>
@@ -3773,10 +3872,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H8" s="5">
         <v>0.9375</v>
@@ -4133,10 +4232,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H16" s="5">
         <v>0.91666666666666663</v>
@@ -4473,8 +4572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB17E25-B77B-4700-B7C6-1DB9B3E38A2C}">
   <dimension ref="A1:M126"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScale="140" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:A126"/>
+    <sheetView topLeftCell="A10" zoomScale="140" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6337,7 +6436,7 @@
         <v>392</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>393</v>
+        <v>867</v>
       </c>
       <c r="L49" s="4">
         <v>17</v>
@@ -6351,7 +6450,7 @@
         <v>229</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D50" s="4">
         <v>10.8</v>
@@ -6360,7 +6459,7 @@
         <v>172</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>287</v>
@@ -6369,13 +6468,13 @@
         <v>136</v>
       </c>
       <c r="I50" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="J50" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="K50" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="L50" s="4">
         <v>17</v>
@@ -6389,16 +6488,16 @@
         <v>229</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D51" s="4">
         <v>12.8</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>400</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>401</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>382</v>
@@ -6407,13 +6506,13 @@
         <v>136</v>
       </c>
       <c r="I51" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="J51" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="K51" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="L51" s="4">
         <v>17</v>
@@ -6427,7 +6526,7 @@
         <v>229</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D52" s="4">
         <v>12.8</v>
@@ -6436,7 +6535,7 @@
         <v>319</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>376</v>
@@ -6445,13 +6544,13 @@
         <v>136</v>
       </c>
       <c r="I52" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="J52" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="K52" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>409</v>
       </c>
       <c r="L52" s="4">
         <v>17</v>
@@ -6465,7 +6564,7 @@
         <v>229</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D53" s="4">
         <v>10.8</v>
@@ -6474,22 +6573,22 @@
         <v>172</v>
       </c>
       <c r="F53" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>411</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>412</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I53" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="J53" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="K53" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="L53" s="4">
         <v>17</v>
@@ -6503,7 +6602,7 @@
         <v>229</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D54" s="4">
         <v>12.8</v>
@@ -6512,22 +6611,22 @@
         <v>319</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>418</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I54" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="J54" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="K54" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>421</v>
       </c>
       <c r="L54" s="4">
         <v>17</v>
@@ -6541,7 +6640,7 @@
         <v>229</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D55" s="4">
         <v>10.5</v>
@@ -6550,7 +6649,7 @@
         <v>209</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G55" s="4">
         <v>1</v>
@@ -6559,13 +6658,13 @@
         <v>136</v>
       </c>
       <c r="I55" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="J55" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="K55" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>426</v>
       </c>
       <c r="L55" s="4">
         <v>17</v>
@@ -6579,7 +6678,7 @@
         <v>229</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D56" s="4">
         <v>12.5</v>
@@ -6588,7 +6687,7 @@
         <v>209</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>287</v>
@@ -6597,13 +6696,13 @@
         <v>136</v>
       </c>
       <c r="I56" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="J56" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="K56" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>431</v>
       </c>
       <c r="L56" s="4">
         <v>17</v>
@@ -6617,7 +6716,7 @@
         <v>229</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D57" s="4">
         <v>12.5</v>
@@ -6626,7 +6725,7 @@
         <v>172</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>287</v>
@@ -6635,13 +6734,13 @@
         <v>136</v>
       </c>
       <c r="I57" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="J57" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="J57" s="7" t="s">
+      <c r="K57" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>436</v>
       </c>
       <c r="L57" s="4">
         <v>17</v>
@@ -6655,7 +6754,7 @@
         <v>260</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D58" s="4">
         <v>13.5</v>
@@ -6664,7 +6763,7 @@
         <v>209</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G58" s="4">
         <v>1</v>
@@ -6673,13 +6772,13 @@
         <v>136</v>
       </c>
       <c r="I58" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="J58" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="J58" s="7" t="s">
+      <c r="K58" s="4" t="s">
         <v>440</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>441</v>
       </c>
       <c r="L58" s="4">
         <v>16</v>
@@ -6693,7 +6792,7 @@
         <v>260</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D59" s="4">
         <v>13.5</v>
@@ -6702,20 +6801,20 @@
         <v>209</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I59" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="J59" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="J59" s="7" t="s">
+      <c r="K59" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>446</v>
       </c>
       <c r="L59" s="4">
         <v>16</v>
@@ -6729,7 +6828,7 @@
         <v>260</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D60" s="4">
         <v>13.9</v>
@@ -6738,20 +6837,20 @@
         <v>209</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I60" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="J60" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="K60" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>450</v>
       </c>
       <c r="L60" s="4">
         <v>16</v>
@@ -6765,7 +6864,7 @@
         <v>260</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D61" s="4">
         <v>13.9</v>
@@ -6774,7 +6873,7 @@
         <v>209</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>344</v>
@@ -6783,13 +6882,13 @@
         <v>136</v>
       </c>
       <c r="I61" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="J61" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="K61" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="L61" s="4">
         <v>16</v>
@@ -6803,7 +6902,7 @@
         <v>260</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D62" s="4">
         <v>14.9</v>
@@ -6812,22 +6911,22 @@
         <v>209</v>
       </c>
       <c r="F62" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I62" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J62" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="J62" s="7" t="s">
+      <c r="K62" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>461</v>
       </c>
       <c r="L62" s="4">
         <v>16</v>
@@ -6841,7 +6940,7 @@
         <v>260</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D63" s="4">
         <v>16.5</v>
@@ -6850,20 +6949,20 @@
         <v>209</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I63" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="J63" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="J63" s="7" t="s">
+      <c r="K63" s="4" t="s">
         <v>464</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>465</v>
       </c>
       <c r="L63" s="4">
         <v>16</v>
@@ -6877,7 +6976,7 @@
         <v>280</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D64" s="4">
         <v>8.9</v>
@@ -6886,22 +6985,22 @@
         <v>209</v>
       </c>
       <c r="F64" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>468</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I64" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="J64" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="K64" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>471</v>
       </c>
       <c r="L64" s="4">
         <v>15</v>
@@ -6915,7 +7014,7 @@
         <v>280</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D65" s="4">
         <v>9.4</v>
@@ -6924,22 +7023,22 @@
         <v>209</v>
       </c>
       <c r="F65" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>474</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I65" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J65" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="J65" s="7" t="s">
+      <c r="K65" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>477</v>
       </c>
       <c r="L65" s="4">
         <v>15</v>
@@ -6953,7 +7052,7 @@
         <v>280</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D66" s="4">
         <v>13.4</v>
@@ -6962,22 +7061,22 @@
         <v>209</v>
       </c>
       <c r="F66" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>480</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I66" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="J66" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="J66" s="7" t="s">
+      <c r="K66" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>483</v>
       </c>
       <c r="L66" s="4">
         <v>15</v>
@@ -6991,7 +7090,7 @@
         <v>280</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D67" s="4">
         <v>9.9</v>
@@ -7000,7 +7099,7 @@
         <v>209</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>287</v>
@@ -7009,13 +7108,13 @@
         <v>136</v>
       </c>
       <c r="I67" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="J67" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="J67" s="7" t="s">
+      <c r="K67" s="4" t="s">
         <v>487</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>488</v>
       </c>
       <c r="L67" s="4">
         <v>15</v>
@@ -7029,7 +7128,7 @@
         <v>280</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D68" s="4">
         <v>9.9</v>
@@ -7038,7 +7137,7 @@
         <v>209</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G68" s="4">
         <v>1</v>
@@ -7047,13 +7146,13 @@
         <v>136</v>
       </c>
       <c r="I68" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J68" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="J68" s="7" t="s">
+      <c r="K68" s="4" t="s">
         <v>492</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>493</v>
       </c>
       <c r="L68" s="4">
         <v>15</v>
@@ -7067,7 +7166,7 @@
         <v>280</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D69" s="4">
         <v>13.4</v>
@@ -7076,22 +7175,22 @@
         <v>319</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I69" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="J69" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="J69" s="7" t="s">
+      <c r="K69" s="4" t="s">
         <v>497</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>498</v>
       </c>
       <c r="L69" s="4">
         <v>15</v>
@@ -7105,7 +7204,7 @@
         <v>280</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D70" s="4">
         <v>9.4</v>
@@ -7114,22 +7213,22 @@
         <v>172</v>
       </c>
       <c r="F70" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>500</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>501</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I70" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="J70" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="J70" s="7" t="s">
+      <c r="K70" s="4" t="s">
         <v>503</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>504</v>
       </c>
       <c r="L70" s="4">
         <v>15</v>
@@ -7143,7 +7242,7 @@
         <v>280</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D71" s="4">
         <v>9.9</v>
@@ -7152,22 +7251,22 @@
         <v>172</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I71" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="J71" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="J71" s="7" t="s">
+      <c r="K71" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>509</v>
       </c>
       <c r="L71" s="4">
         <v>15</v>
@@ -7181,7 +7280,7 @@
         <v>280</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D72" s="4">
         <v>9.4</v>
@@ -7190,22 +7289,22 @@
         <v>179</v>
       </c>
       <c r="F72" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>512</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I72" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="J72" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="J72" s="7" t="s">
+      <c r="K72" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>515</v>
       </c>
       <c r="L72" s="4">
         <v>15</v>
@@ -7219,7 +7318,7 @@
         <v>280</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D73" s="4">
         <v>9.4</v>
@@ -7228,22 +7327,22 @@
         <v>179</v>
       </c>
       <c r="F73" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>518</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I73" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="J73" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="J73" s="7" t="s">
+      <c r="K73" s="4" t="s">
         <v>520</v>
-      </c>
-      <c r="K73" s="4" t="s">
-        <v>521</v>
       </c>
       <c r="L73" s="4">
         <v>15</v>
@@ -7257,7 +7356,7 @@
         <v>131</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D74" s="4">
         <v>13.5</v>
@@ -7266,22 +7365,22 @@
         <v>172</v>
       </c>
       <c r="F74" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>524</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I74" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="J74" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="J74" s="7" t="s">
+      <c r="K74" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>527</v>
       </c>
       <c r="L74" s="4">
         <v>18</v>
@@ -7295,7 +7394,7 @@
         <v>131</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D75" s="4">
         <v>13.5</v>
@@ -7304,7 +7403,7 @@
         <v>172</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>344</v>
@@ -7313,13 +7412,13 @@
         <v>136</v>
       </c>
       <c r="I75" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="J75" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="J75" s="7" t="s">
+      <c r="K75" s="4" t="s">
         <v>531</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>532</v>
       </c>
       <c r="L75" s="4">
         <v>18</v>
@@ -7333,7 +7432,7 @@
         <v>131</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D76" s="4">
         <v>14.8</v>
@@ -7342,7 +7441,7 @@
         <v>209</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>344</v>
@@ -7351,13 +7450,13 @@
         <v>136</v>
       </c>
       <c r="I76" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="J76" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="J76" s="7" t="s">
+      <c r="K76" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="K76" s="4" t="s">
-        <v>537</v>
       </c>
       <c r="L76" s="4">
         <v>18</v>
@@ -7371,7 +7470,7 @@
         <v>131</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D77" s="4">
         <v>15.5</v>
@@ -7380,7 +7479,7 @@
         <v>209</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>344</v>
@@ -7389,13 +7488,13 @@
         <v>136</v>
       </c>
       <c r="I77" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="J77" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="J77" s="7" t="s">
+      <c r="K77" s="4" t="s">
         <v>541</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>542</v>
       </c>
       <c r="L77" s="4">
         <v>18</v>
@@ -7418,22 +7517,22 @@
         <v>209</v>
       </c>
       <c r="F78" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>543</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>544</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I78" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="J78" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="J78" s="7" t="s">
+      <c r="K78" s="4" t="s">
         <v>546</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>547</v>
       </c>
       <c r="L78" s="4">
         <v>14</v>
@@ -7447,7 +7546,7 @@
         <v>305</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D79" s="4">
         <v>12.9</v>
@@ -7456,7 +7555,7 @@
         <v>209</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>344</v>
@@ -7465,13 +7564,13 @@
         <v>136</v>
       </c>
       <c r="I79" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="J79" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="J79" s="7" t="s">
+      <c r="K79" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>552</v>
       </c>
       <c r="L79" s="4">
         <v>14</v>
@@ -7485,7 +7584,7 @@
         <v>305</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D80" s="4">
         <v>14.9</v>
@@ -7494,22 +7593,22 @@
         <v>209</v>
       </c>
       <c r="F80" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="G80" s="4" t="s">
         <v>554</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>555</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I80" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="J80" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="J80" s="7" t="s">
+      <c r="K80" s="4" t="s">
         <v>557</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>558</v>
       </c>
       <c r="L80" s="4">
         <v>14</v>
@@ -7523,7 +7622,7 @@
         <v>305</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D81" s="4">
         <v>13.9</v>
@@ -7532,7 +7631,7 @@
         <v>209</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>344</v>
@@ -7541,13 +7640,13 @@
         <v>136</v>
       </c>
       <c r="I81" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="J81" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="J81" s="7" t="s">
+      <c r="K81" s="4" t="s">
         <v>562</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>563</v>
       </c>
       <c r="L81" s="4">
         <v>14</v>
@@ -7561,7 +7660,7 @@
         <v>305</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D82" s="4">
         <v>14.9</v>
@@ -7570,20 +7669,20 @@
         <v>209</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I82" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="J82" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="J82" s="7" t="s">
+      <c r="K82" s="4" t="s">
         <v>567</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>568</v>
       </c>
       <c r="L82" s="4">
         <v>14</v>
@@ -7597,7 +7696,7 @@
         <v>305</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D83" s="4">
         <v>10.9</v>
@@ -7606,22 +7705,22 @@
         <v>172</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I83" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="J83" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="J83" s="7" t="s">
+      <c r="K83" s="4" t="s">
         <v>572</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>573</v>
       </c>
       <c r="L83" s="4">
         <v>14</v>
@@ -7635,7 +7734,7 @@
         <v>305</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D84" s="4">
         <v>9.9</v>
@@ -7644,7 +7743,7 @@
         <v>179</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>355</v>
@@ -7653,13 +7752,13 @@
         <v>136</v>
       </c>
       <c r="I84" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="J84" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="J84" s="7" t="s">
+      <c r="K84" s="4" t="s">
         <v>577</v>
-      </c>
-      <c r="K84" s="4" t="s">
-        <v>578</v>
       </c>
       <c r="L84" s="4">
         <v>14</v>
@@ -7673,7 +7772,7 @@
         <v>191</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D85" s="4">
         <v>13.8</v>
@@ -7682,7 +7781,7 @@
         <v>209</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>344</v>
@@ -7691,13 +7790,13 @@
         <v>136</v>
       </c>
       <c r="I85" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="J85" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="J85" s="7" t="s">
+      <c r="K85" s="4" t="s">
         <v>582</v>
-      </c>
-      <c r="K85" s="4" t="s">
-        <v>583</v>
       </c>
       <c r="L85" s="4">
         <v>11</v>
@@ -7711,7 +7810,7 @@
         <v>191</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D86" s="4">
         <v>13.8</v>
@@ -7720,7 +7819,7 @@
         <v>209</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G86" s="4">
         <v>18</v>
@@ -7729,13 +7828,13 @@
         <v>136</v>
       </c>
       <c r="I86" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="J86" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="K86" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="K86" s="4" t="s">
-        <v>588</v>
       </c>
       <c r="L86" s="4">
         <v>11</v>
@@ -7749,7 +7848,7 @@
         <v>191</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D87" s="4">
         <v>13.5</v>
@@ -7758,7 +7857,7 @@
         <v>172</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G87" s="4">
         <v>6</v>
@@ -7767,13 +7866,13 @@
         <v>136</v>
       </c>
       <c r="I87" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="J87" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="J87" s="7" t="s">
+      <c r="K87" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="K87" s="4" t="s">
-        <v>593</v>
       </c>
       <c r="L87" s="4">
         <v>11</v>
@@ -7787,7 +7886,7 @@
         <v>191</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D88" s="4">
         <v>12.5</v>
@@ -7796,22 +7895,22 @@
         <v>172</v>
       </c>
       <c r="F88" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>595</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>596</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I88" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="J88" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="J88" s="7" t="s">
+      <c r="K88" s="4" t="s">
         <v>598</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>599</v>
       </c>
       <c r="L88" s="4">
         <v>11</v>
@@ -7825,7 +7924,7 @@
         <v>191</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D89" s="4">
         <v>13.5</v>
@@ -7834,22 +7933,22 @@
         <v>172</v>
       </c>
       <c r="F89" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="G89" s="4" t="s">
         <v>601</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>602</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I89" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="J89" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="J89" s="7" t="s">
+      <c r="K89" s="4" t="s">
         <v>604</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>605</v>
       </c>
       <c r="L89" s="4">
         <v>11</v>
@@ -7863,7 +7962,7 @@
         <v>191</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D90" s="4">
         <v>13.8</v>
@@ -7872,22 +7971,22 @@
         <v>319</v>
       </c>
       <c r="F90" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="G90" s="4" t="s">
         <v>607</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>608</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I90" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="J90" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="J90" s="7" t="s">
+      <c r="K90" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>611</v>
       </c>
       <c r="L90" s="4">
         <v>11</v>
@@ -7901,7 +8000,7 @@
         <v>191</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D91" s="4">
         <v>13.8</v>
@@ -7910,22 +8009,22 @@
         <v>319</v>
       </c>
       <c r="F91" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G91" s="4" t="s">
         <v>613</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>614</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I91" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="J91" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="J91" s="7" t="s">
+      <c r="K91" s="4" t="s">
         <v>616</v>
-      </c>
-      <c r="K91" s="4" t="s">
-        <v>617</v>
       </c>
       <c r="L91" s="4">
         <v>11</v>
@@ -7939,7 +8038,7 @@
         <v>191</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D92" s="4">
         <v>12.5</v>
@@ -7948,22 +8047,22 @@
         <v>209</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I92" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="J92" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="J92" s="7" t="s">
+      <c r="K92" s="4" t="s">
         <v>621</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>622</v>
       </c>
       <c r="L92" s="4">
         <v>11</v>
@@ -7977,7 +8076,7 @@
         <v>191</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D93" s="4">
         <v>13.8</v>
@@ -7986,20 +8085,20 @@
         <v>209</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I93" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="J93" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="J93" s="7" t="s">
+      <c r="K93" s="4" t="s">
         <v>626</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>627</v>
       </c>
       <c r="L93" s="4">
         <v>11</v>
@@ -8013,7 +8112,7 @@
         <v>305</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D94" s="4">
         <v>6.8</v>
@@ -8022,20 +8121,20 @@
         <v>209</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I94" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="J94" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="J94" s="7" t="s">
+      <c r="K94" s="4" t="s">
         <v>631</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>632</v>
       </c>
       <c r="L94" s="4">
         <v>13</v>
@@ -8049,7 +8148,7 @@
         <v>305</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D95" s="4">
         <v>7.9</v>
@@ -8058,7 +8157,7 @@
         <v>209</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>344</v>
@@ -8067,13 +8166,13 @@
         <v>136</v>
       </c>
       <c r="I95" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="J95" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="J95" s="7" t="s">
+      <c r="K95" s="4" t="s">
         <v>636</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>637</v>
       </c>
       <c r="L95" s="4">
         <v>13</v>
@@ -8087,7 +8186,7 @@
         <v>305</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D96" s="4">
         <v>7.4</v>
@@ -8096,22 +8195,22 @@
         <v>209</v>
       </c>
       <c r="F96" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="G96" s="4" t="s">
         <v>639</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>640</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I96" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="J96" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="J96" s="7" t="s">
+      <c r="K96" s="4" t="s">
         <v>642</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>643</v>
       </c>
       <c r="L96" s="4">
         <v>13</v>
@@ -8125,7 +8224,7 @@
         <v>305</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D97" s="4">
         <v>6.9</v>
@@ -8134,7 +8233,7 @@
         <v>172</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G97" s="4">
         <v>1</v>
@@ -8143,13 +8242,13 @@
         <v>136</v>
       </c>
       <c r="I97" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="J97" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="J97" s="7" t="s">
+      <c r="K97" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="K97" s="4" t="s">
-        <v>648</v>
       </c>
       <c r="L97" s="4">
         <v>13</v>
@@ -8163,7 +8262,7 @@
         <v>305</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D98" s="4">
         <v>7.2</v>
@@ -8172,20 +8271,20 @@
         <v>172</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I98" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="J98" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="J98" s="7" t="s">
+      <c r="K98" s="4" t="s">
         <v>652</v>
-      </c>
-      <c r="K98" s="4" t="s">
-        <v>653</v>
       </c>
       <c r="L98" s="4">
         <v>13</v>
@@ -8199,7 +8298,7 @@
         <v>305</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D99" s="4">
         <v>8.5</v>
@@ -8208,7 +8307,7 @@
         <v>319</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G99" s="4">
         <v>4</v>
@@ -8217,13 +8316,13 @@
         <v>136</v>
       </c>
       <c r="I99" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="J99" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="J99" s="7" t="s">
+      <c r="K99" s="4" t="s">
         <v>657</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>658</v>
       </c>
       <c r="L99" s="4">
         <v>13</v>
@@ -8237,7 +8336,7 @@
         <v>305</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D100" s="4">
         <v>9.9</v>
@@ -8246,7 +8345,7 @@
         <v>319</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G100" s="4">
         <v>15</v>
@@ -8255,13 +8354,13 @@
         <v>136</v>
       </c>
       <c r="I100" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="J100" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="J100" s="7" t="s">
+      <c r="K100" s="4" t="s">
         <v>662</v>
-      </c>
-      <c r="K100" s="4" t="s">
-        <v>663</v>
       </c>
       <c r="L100" s="4">
         <v>13</v>
@@ -8275,7 +8374,7 @@
         <v>305</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D101" s="4">
         <v>8.9</v>
@@ -8284,22 +8383,22 @@
         <v>319</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>136</v>
       </c>
       <c r="I101" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="J101" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="J101" s="7" t="s">
+      <c r="K101" s="4" t="s">
         <v>666</v>
-      </c>
-      <c r="K101" s="4" t="s">
-        <v>667</v>
       </c>
       <c r="L101" s="4">
         <v>13</v>
@@ -8441,10 +8540,175 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4D624E-8E28-784A-BEC7-768DBD17C5A3}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView zoomScale="171" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC55C975-5D1C-6E41-9916-C5BD900D32CB}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="171" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA84880-E797-490C-B6C8-7F8FA112873A}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
@@ -8458,7 +8722,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>122</v>
@@ -8478,16 +8742,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C2">
         <v>3.2</v>
       </c>
       <c r="D2" t="s">
+        <v>672</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>673</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8495,16 +8759,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C3">
         <v>3.2</v>
       </c>
       <c r="D3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8512,16 +8776,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C4">
         <v>3.2</v>
       </c>
       <c r="D4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8529,16 +8793,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C5">
         <v>3.2</v>
       </c>
       <c r="D5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8546,16 +8810,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C6">
         <v>3.8</v>
       </c>
       <c r="D6" t="s">
+        <v>681</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>682</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8563,16 +8827,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C7">
         <v>3.8</v>
       </c>
       <c r="D7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8580,16 +8844,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C8">
         <v>3.8</v>
       </c>
       <c r="D8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8597,16 +8861,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C9">
         <v>2.8</v>
       </c>
       <c r="D9" t="s">
+        <v>688</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>689</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8614,16 +8878,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C10">
         <v>3.2</v>
       </c>
       <c r="D10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8631,16 +8895,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C11">
         <v>3.3</v>
       </c>
       <c r="D11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8648,16 +8912,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8665,16 +8929,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C13">
         <v>3.4</v>
       </c>
       <c r="D13" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8682,16 +8946,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C14">
         <v>2.2000000000000002</v>
       </c>
       <c r="D14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8699,16 +8963,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C15">
         <v>2.2000000000000002</v>
       </c>
       <c r="D15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8716,16 +8980,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C16">
         <v>2.2000000000000002</v>
       </c>
       <c r="D16" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8733,16 +8997,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C17">
         <v>3.6</v>
       </c>
       <c r="D17" t="s">
+        <v>705</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>706</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8750,16 +9014,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C18">
         <v>3.4</v>
       </c>
       <c r="D18" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8767,16 +9031,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C19">
         <v>3.4</v>
       </c>
       <c r="D19" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8784,16 +9048,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C20">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8801,16 +9065,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C21">
         <v>3.8</v>
       </c>
       <c r="D21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8818,16 +9082,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C22">
         <v>3.6</v>
       </c>
       <c r="D22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8835,16 +9099,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C23">
         <v>3.6</v>
       </c>
       <c r="D23" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8852,16 +9116,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C24">
         <v>2.4</v>
       </c>
       <c r="D24" t="s">
+        <v>719</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -8869,16 +9133,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C25">
         <v>2.2000000000000002</v>
       </c>
       <c r="D25" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -8886,16 +9150,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C26">
         <v>2.2000000000000002</v>
       </c>
       <c r="D26" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -8903,16 +9167,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C27">
         <v>3.2</v>
       </c>
       <c r="D27" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -8920,16 +9184,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C28">
         <v>3.2</v>
       </c>
       <c r="D28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -8937,16 +9201,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C29">
         <v>3.8</v>
       </c>
       <c r="D29" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="128" x14ac:dyDescent="0.2">
@@ -8954,16 +9218,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C30">
         <v>3.8</v>
       </c>
       <c r="D30" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -8971,16 +9235,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C31">
         <v>3.8</v>
       </c>
       <c r="D31" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -8988,16 +9252,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C32">
         <v>4.5</v>
       </c>
       <c r="D32" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -9005,16 +9269,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C33">
         <v>4.5</v>
       </c>
       <c r="D33" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -9022,16 +9286,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C34">
         <v>4.5</v>
       </c>
       <c r="D34" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -9039,16 +9303,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C35">
         <v>5.5</v>
       </c>
       <c r="D35" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -9056,16 +9320,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C36">
         <v>5.5</v>
       </c>
       <c r="D36" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -9073,16 +9337,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C37">
         <v>4.5</v>
       </c>
       <c r="D37" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -9090,16 +9354,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C38">
         <v>5.5</v>
       </c>
       <c r="D38" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -9107,16 +9371,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C39">
         <v>3.4</v>
       </c>
       <c r="D39" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -9124,16 +9388,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C40">
         <v>3.2</v>
       </c>
       <c r="D40" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -9141,16 +9405,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C41">
         <v>2.8</v>
       </c>
       <c r="D41" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -9158,16 +9422,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C42">
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -9175,16 +9439,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C43">
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="128" x14ac:dyDescent="0.2">
@@ -9192,16 +9456,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C44">
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -9209,16 +9473,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C45">
         <v>4</v>
       </c>
       <c r="D45" t="s">
+        <v>762</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>763</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -9226,16 +9490,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -9243,16 +9507,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C47">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -9260,16 +9524,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C48">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -9277,16 +9541,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C49">
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -9294,16 +9558,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C50">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -9311,16 +9575,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C51">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -9328,16 +9592,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C52">
         <v>3.8</v>
       </c>
       <c r="D52" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -9401,11 +9665,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5374C0-011E-45E4-BE95-3545615AB94A}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="157" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
@@ -9418,7 +9682,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>125</v>
@@ -9429,7 +9693,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -9437,7 +9701,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -9445,7 +9709,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -9453,7 +9717,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -9461,7 +9725,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -9469,7 +9733,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -9477,7 +9741,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -9485,7 +9749,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -9493,7 +9757,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -9501,7 +9765,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E11" s="9"/>
     </row>
@@ -9510,7 +9774,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -9518,7 +9782,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -9526,7 +9790,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -9534,7 +9798,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -9542,7 +9806,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -9550,7 +9814,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -9558,7 +9822,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -9566,7 +9830,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -9574,7 +9838,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -9582,7 +9846,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -9590,7 +9854,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -9598,7 +9862,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -9606,7 +9870,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -9614,7 +9878,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -9622,7 +9886,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -9630,7 +9894,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -9638,7 +9902,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -9646,7 +9910,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -9654,7 +9918,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -9662,7 +9926,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -9670,7 +9934,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -9678,7 +9942,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -9686,7 +9950,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -9694,7 +9958,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -9702,7 +9966,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -9710,7 +9974,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -9718,7 +9982,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -9726,7 +9990,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -9734,7 +9998,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -9742,7 +10006,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -9750,7 +10014,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -9758,7 +10022,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -9766,7 +10030,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -9774,7 +10038,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -9782,7 +10046,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -9790,7 +10054,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -9798,7 +10062,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -9806,7 +10070,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -9817,11 +10081,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7676E93-61D2-C540-86CA-3A4648138FB3}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="168" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -9834,10 +10098,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>828</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>829</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
@@ -9848,10 +10112,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>830</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -9859,10 +10123,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>832</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -9870,7 +10134,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -9888,7 +10152,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -9897,10 +10161,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -9908,7 +10172,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -9917,10 +10181,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>839</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -9928,7 +10192,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -9937,7 +10201,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -9946,7 +10210,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -9955,10 +10219,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>844</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -9966,10 +10230,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -9977,10 +10241,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>847</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -9988,10 +10252,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>849</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -9999,7 +10263,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -10008,7 +10272,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -10017,10 +10281,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>853</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -10047,46 +10311,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AE945D-A4BC-40F9-9C14-6D890D7EBEAD}">
-  <dimension ref="A2:A9"/>
+  <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="223" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="40.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+        <v>858</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="C3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
     </row>
   </sheetData>
@@ -10094,7 +10367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BD8ED7-FA83-431A-B318-CB16642876F8}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -10112,16 +10385,16 @@
         <v>122</v>
       </c>
       <c r="B1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C1" t="s">
         <v>855</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>856</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>857</v>
-      </c>
-      <c r="E1" t="s">
-        <v>858</v>
       </c>
     </row>
   </sheetData>

--- a/restaurantData/Restaurant_DB.xlsx
+++ b/restaurantData/Restaurant_DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/normanschmickler/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5C8785D-BC6C-274D-9357-EF61B48F7C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31FAC0D-A780-4861-9B6C-25C26E386E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" firstSheet="4" activeTab="4" xr2:uid="{106D1393-4DC9-4DB8-A467-A49FAB233FCB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{106D1393-4DC9-4DB8-A467-A49FAB233FCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Restaurants" sheetId="3" r:id="rId1"/>
@@ -30,22 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="1419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2569" uniqueCount="1417">
   <si>
     <t>Restaurant_ID</t>
   </si>
@@ -3891,16 +3881,10 @@
     <t>Sub_Kat_ID</t>
   </si>
   <si>
-    <t>Bezeichung</t>
-  </si>
-  <si>
     <t>Kat_NR</t>
   </si>
   <si>
     <t>Bezeichnung</t>
-  </si>
-  <si>
-    <t>deutsch</t>
   </si>
   <si>
     <t>Besonderheit_ID</t>
@@ -4481,7 +4465,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4531,7 +4515,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4883,7 +4866,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A5873EA3-6D9A-4D1B-B7D8-589787195B0D}" name="Sub_Kat_ID" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{9B33A4C7-7297-44CA-8815-30AB2F0678F0}" name="Kategorie_ID" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{DF3BC3CC-16BD-4FCB-AF58-FD44FBA1EEF1}" name="Bezeichung" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{DF3BC3CC-16BD-4FCB-AF58-FD44FBA1EEF1}" name="Bezeichnung" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{8F1814C6-071D-4E31-8C3A-F3FC0F65C978}" name="Essverhalten" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4891,8 +4874,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{25D795D4-1833-4A78-992A-9E346A3AD7C0}" name="Tabelle8" displayName="Tabelle8" ref="A1:B16" totalsRowShown="0">
-  <autoFilter ref="A1:B16" xr:uid="{25D795D4-1833-4A78-992A-9E346A3AD7C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{25D795D4-1833-4A78-992A-9E346A3AD7C0}" name="Tabelle8" displayName="Tabelle8" ref="A1:B15" totalsRowShown="0">
+  <autoFilter ref="A1:B15" xr:uid="{25D795D4-1833-4A78-992A-9E346A3AD7C0}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{13AD47E8-1448-4F31-A20E-150536413419}" name="Kat_NR"/>
     <tableColumn id="2" xr3:uid="{BDB9A6CD-9F04-4BA5-8AED-7BE658CCB209}" name="Bezeichnung"/>
@@ -5237,30 +5220,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721D09D1-6061-4240-90BA-F30DB895FBD6}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="H23" zoomScale="97" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="97" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" customWidth="1"/>
-    <col min="14" max="14" width="17.1640625" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" customWidth="1"/>
-    <col min="18" max="18" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" customWidth="1"/>
+    <col min="12" max="12" width="18.36328125" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" customWidth="1"/>
+    <col min="18" max="18" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5305,11 +5288,11 @@
       </c>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -5350,7 +5333,7 @@
       </c>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5395,11 +5378,11 @@
       </c>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -5440,7 +5423,7 @@
       </c>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="145" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5485,7 +5468,7 @@
       </c>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5530,11 +5513,11 @@
       </c>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -5575,7 +5558,7 @@
       </c>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="284" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="284" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5620,11 +5603,11 @@
       </c>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="288" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -5665,7 +5648,7 @@
       </c>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="145" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5710,11 +5693,11 @@
       </c>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="320" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="290" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -5755,7 +5738,7 @@
       </c>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5800,7 +5783,7 @@
       </c>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -5845,7 +5828,7 @@
       </c>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="116" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -5890,7 +5873,7 @@
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5935,7 +5918,7 @@
       </c>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -5980,7 +5963,7 @@
       </c>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -6025,7 +6008,7 @@
       </c>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -6070,7 +6053,7 @@
       </c>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="174" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -6115,7 +6098,7 @@
       </c>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -6160,7 +6143,7 @@
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="116" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -6205,7 +6188,7 @@
       </c>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -6250,7 +6233,7 @@
       </c>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="116" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -6295,7 +6278,7 @@
       </c>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="116" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -6340,11 +6323,11 @@
       </c>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="145" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>145</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -6442,47 +6425,47 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="40.83203125" customWidth="1"/>
+    <col min="3" max="3" width="40.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
         <v>1411</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
     </row>
   </sheetData>
@@ -6498,26 +6481,26 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>151</v>
       </c>
       <c r="B1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D1" t="s">
         <v>1415</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1416</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1417</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1418</v>
       </c>
     </row>
   </sheetData>
@@ -6529,26 +6512,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB17E25-B77B-4700-B7C6-1DB9B3E38A2C}">
   <dimension ref="A1:N150"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
+    <sheetView zoomScale="64" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="2"/>
+    <col min="1" max="1" width="11.453125" style="2"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="2"/>
-    <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56.1640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="2"/>
-    <col min="11" max="12" width="44.83203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="103.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="2"/>
+    <col min="5" max="5" width="15.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.1796875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" style="2"/>
+    <col min="11" max="12" width="44.81640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="103.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>150</v>
       </c>
@@ -6589,7 +6572,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -6631,7 +6614,7 @@
       </c>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -6672,7 +6655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -6713,7 +6696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -6754,7 +6737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -6795,7 +6778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -6836,7 +6819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -6877,7 +6860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -6918,7 +6901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -6959,7 +6942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -7000,7 +6983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -7039,7 +7022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -7080,7 +7063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -7121,7 +7104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -7160,7 +7143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -7201,7 +7184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -7240,7 +7223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -7280,7 +7263,7 @@
       </c>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -7321,7 +7304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -7362,7 +7345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -7403,7 +7386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -7444,7 +7427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -7485,7 +7468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -7526,7 +7509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -7567,7 +7550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -7608,7 +7591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -7647,7 +7630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -7688,7 +7671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -7729,7 +7712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -7770,7 +7753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -7811,7 +7794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -7852,7 +7835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -7893,7 +7876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -7934,7 +7917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -7975,7 +7958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -8016,7 +7999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -8057,7 +8040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -8098,7 +8081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -8137,7 +8120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -8178,7 +8161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -8219,7 +8202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -8260,7 +8243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -8301,7 +8284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -8342,7 +8325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -8383,7 +8366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -8424,7 +8407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="144" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -8465,7 +8448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="176" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="174" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -8506,7 +8489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -8547,7 +8530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="365" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -8588,7 +8571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="144" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -8629,7 +8612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="224" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -8670,7 +8653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -8711,7 +8694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -8752,7 +8735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -8793,7 +8776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="144" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -8834,7 +8817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="395" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="377" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -8875,7 +8858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="224" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="203" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -8916,7 +8899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -8955,7 +8938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -8994,7 +8977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="144" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -9035,7 +9018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="160" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="174" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -9076,7 +9059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="365" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="348" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -9115,7 +9098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -9156,7 +9139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -9197,7 +9180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -9238,7 +9221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -9279,7 +9262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -9320,7 +9303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -9361,7 +9344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="160" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -9402,7 +9385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="160" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -9443,7 +9426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -9484,7 +9467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -9525,7 +9508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="144" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -9566,7 +9549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="176" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -9607,7 +9590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -9648,7 +9631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="320" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="319" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -9689,7 +9672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="160" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -9730,7 +9713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="144" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -9771,7 +9754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -9812,7 +9795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="208" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="232" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -9853,7 +9836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -9892,7 +9875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="192" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="203" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -9933,7 +9916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -9974,7 +9957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -10015,7 +9998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -10056,7 +10039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="192" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="174" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -10097,7 +10080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="192" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="174" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -10138,7 +10121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="365" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="348" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -10179,7 +10162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -10220,7 +10203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -10261,7 +10244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -10302,7 +10285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -10341,7 +10324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="144" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -10380,7 +10363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="160" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="174" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -10421,7 +10404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="192" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -10462,7 +10445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="144" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -10503,7 +10486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -10542,7 +10525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -10583,7 +10566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -10624,7 +10607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="320" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="319" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -10665,7 +10648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -10704,7 +10687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="224" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="232" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -10743,7 +10726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="192" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -10782,7 +10765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -10821,7 +10804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="160" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -10860,7 +10843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="192" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -10899,7 +10882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -10938,7 +10921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="176" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" ht="174" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -10977,7 +10960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="176" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -11016,7 +10999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -11055,7 +11038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="288" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" ht="261" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -11094,7 +11077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="160" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -11133,7 +11116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="160" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -11172,7 +11155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -11211,7 +11194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -11250,7 +11233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="160" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -11289,7 +11272,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="176" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -11328,7 +11311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -11367,7 +11350,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="350" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -11406,7 +11389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="350" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="348" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -11445,7 +11428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="240" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -11484,7 +11467,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="208" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="203" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -11523,7 +11506,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -11562,7 +11545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="335" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="319" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -11601,7 +11584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="224" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="261" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -11640,7 +11623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="144" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -11679,7 +11662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -11718,7 +11701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -11757,7 +11740,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="335" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" ht="319" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -11796,7 +11779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -11835,7 +11818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -11874,7 +11857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -11913,7 +11896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -11952,7 +11935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -11991,7 +11974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -12030,7 +12013,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -12069,7 +12052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="176" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" ht="174" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -12108,7 +12091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -12147,7 +12130,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="208" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -12186,7 +12169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="144" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -12225,7 +12208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="192" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -12264,7 +12247,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="144" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -12303,7 +12286,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="208" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" ht="203" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -12342,7 +12325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -12381,7 +12364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -12420,7 +12403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -12459,7 +12442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -12498,7 +12481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -12537,7 +12520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -12744,15 +12727,15 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="74.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="74.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1049</v>
       </c>
@@ -12766,7 +12749,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -12780,7 +12763,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -12794,7 +12777,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -12808,7 +12791,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -12822,31 +12805,31 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14" s="3"/>
     </row>
   </sheetData>
@@ -12865,15 +12848,15 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="30.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="30.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1061</v>
       </c>
@@ -12890,7 +12873,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -12906,13 +12889,13 @@
       <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -12929,7 +12912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -12946,7 +12929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -12963,7 +12946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -12980,7 +12963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -12997,7 +12980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -13014,7 +12997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -13031,7 +13014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -13048,7 +13031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -13065,7 +13048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -13082,7 +13065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -13099,7 +13082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -13116,7 +13099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -13133,7 +13116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -13150,7 +13133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -13167,7 +13150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -13184,7 +13167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -13201,7 +13184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -13218,7 +13201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -13235,7 +13218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -13252,7 +13235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -13269,7 +13252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -13286,7 +13269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -13303,7 +13286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -13320,7 +13303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -13337,7 +13320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -13354,7 +13337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -13371,7 +13354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -13388,7 +13371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -13405,7 +13388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -13422,7 +13405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -13439,7 +13422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -13456,7 +13439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -13473,7 +13456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -13490,7 +13473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -13507,7 +13490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -13524,7 +13507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -13541,7 +13524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -13558,7 +13541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -13575,7 +13558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -13592,7 +13575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -13609,7 +13592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -13626,7 +13609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -13643,7 +13626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -13660,7 +13643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -13677,7 +13660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -13694,7 +13677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -13711,7 +13694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -13728,7 +13711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -13745,7 +13728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -13762,7 +13745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -13779,7 +13762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -13796,7 +13779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -13813,7 +13796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -13830,7 +13813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -13847,7 +13830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -13864,7 +13847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -13881,7 +13864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -13898,7 +13881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -13915,7 +13898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -13932,7 +13915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -13949,7 +13932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -13966,7 +13949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -13983,7 +13966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -14000,7 +13983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -14017,7 +14000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -14034,7 +14017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -14051,7 +14034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -14068,7 +14051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -14085,7 +14068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -14102,7 +14085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -14119,7 +14102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -14136,7 +14119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -14153,7 +14136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -14170,7 +14153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -14187,7 +14170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -14204,7 +14187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -14221,7 +14204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -14238,7 +14221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -14255,7 +14238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -14272,7 +14255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -14289,7 +14272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -14306,7 +14289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -14323,7 +14306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -14340,7 +14323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -14357,7 +14340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -14374,7 +14357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -14391,7 +14374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -14408,7 +14391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -14425,7 +14408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -14442,7 +14425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -14459,7 +14442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -14476,7 +14459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -14493,7 +14476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -14510,7 +14493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -14527,7 +14510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -14544,7 +14527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -14561,7 +14544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -14578,7 +14561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -14595,7 +14578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -14612,7 +14595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -14629,7 +14612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -14646,7 +14629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -14663,7 +14646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -14680,7 +14663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -14697,7 +14680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -14714,7 +14697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -14731,7 +14714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -14748,7 +14731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -14765,7 +14748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -14782,7 +14765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -14799,7 +14782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -14816,7 +14799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -14833,7 +14816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -14850,7 +14833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -14867,7 +14850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -14884,7 +14867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -14901,7 +14884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -14918,7 +14901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -14935,7 +14918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -14952,7 +14935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -14969,7 +14952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -14986,7 +14969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -15003,7 +14986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -15020,7 +15003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -15037,7 +15020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -15054,7 +15037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -15071,7 +15054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -15088,7 +15071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -15105,7 +15088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -15122,7 +15105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -15139,7 +15122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -15156,7 +15139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -15173,7 +15156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -15190,7 +15173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -15207,7 +15190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -15224,7 +15207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -15241,7 +15224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -15258,7 +15241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -15275,7 +15258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -15292,7 +15275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -15309,7 +15292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -15326,7 +15309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -15343,7 +15326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -15360,7 +15343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -15377,7 +15360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -15394,7 +15377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -15411,7 +15394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -15428,7 +15411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -15445,7 +15428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -15459,7 +15442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -15473,7 +15456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -15487,7 +15470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -15501,7 +15484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -15515,7 +15498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -15529,7 +15512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -15543,7 +15526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -15557,7 +15540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -15571,7 +15554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -15585,7 +15568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -15599,7 +15582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -15613,7 +15596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -15627,7 +15610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -15641,7 +15624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -15655,7 +15638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -15669,7 +15652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -15683,7 +15666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -15697,7 +15680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -15711,7 +15694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -15725,7 +15708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -15739,7 +15722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -15753,7 +15736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -15767,7 +15750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -15781,7 +15764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -15795,7 +15778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -15809,7 +15792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -15823,7 +15806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -15837,7 +15820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -15851,7 +15834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -15865,7 +15848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -15879,7 +15862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -15893,7 +15876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -15907,7 +15890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -15921,7 +15904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -15935,7 +15918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -15949,7 +15932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -15963,7 +15946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -15977,7 +15960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -15991,7 +15974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -16005,7 +15988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -16019,7 +16002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <v>192</v>
       </c>
@@ -16033,7 +16016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>193</v>
       </c>
@@ -16047,7 +16030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>194</v>
       </c>
@@ -16061,7 +16044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -16075,7 +16058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <v>196</v>
       </c>
@@ -16089,7 +16072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
         <v>197</v>
       </c>
@@ -16103,7 +16086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -16117,7 +16100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
         <v>199</v>
       </c>
@@ -16131,14 +16114,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <v>200</v>
       </c>
-      <c r="B201" s="20" t="s">
+      <c r="B201" s="19" t="s">
         <v>1140</v>
       </c>
-      <c r="C201" s="20" t="s">
+      <c r="C201" s="19" t="s">
         <v>1140</v>
       </c>
       <c r="D201" s="3" t="s">
@@ -16148,7 +16131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
         <v>201</v>
       </c>
@@ -16165,7 +16148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -16182,7 +16165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
         <v>203</v>
       </c>
@@ -16199,7 +16182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <v>204</v>
       </c>
@@ -16216,7 +16199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>205</v>
       </c>
@@ -16233,7 +16216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -16250,7 +16233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>207</v>
       </c>
@@ -16267,7 +16250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -16284,7 +16267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -16301,7 +16284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -16318,7 +16301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>211</v>
       </c>
@@ -16335,7 +16318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>212</v>
       </c>
@@ -16352,7 +16335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>213</v>
       </c>
@@ -16369,7 +16352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -16386,7 +16369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>215</v>
       </c>
@@ -16403,7 +16386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -16435,267 +16418,321 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5C385D-C0FF-4720-BC08-42ECE4E18832}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="18.33203125" style="22" customWidth="1"/>
+    <col min="1" max="4" width="18.36328125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>1270</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>1049</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="21" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="21">
         <v>2</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>1063</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="22">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="22">
+      <c r="D3" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>2</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
+      <c r="D4" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>2</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
+      <c r="D5" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="22">
+      <c r="D6" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>2</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
+      <c r="D7" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+      <c r="D8" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>2</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="D9" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>3</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>1074</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="21">
         <v>3</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
+      <c r="D11" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <v>3</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
+      <c r="D12" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="21">
         <v>3</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
+      <c r="D13" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="21">
         <v>13</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <v>3</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
+      <c r="D14" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="21">
         <v>14</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>3</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>1098</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="21">
         <v>15</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>3</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="22">
+      <c r="D16" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="21">
         <v>16</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>1</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="22">
+      <c r="D17" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="21">
         <v>17</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>1</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="22">
+      <c r="D18" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="21">
         <v>18</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>1</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="22">
+      <c r="D19" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="21">
         <v>19</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>1</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="22">
+      <c r="D20" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="21">
         <v>20</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>1</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="22">
+      <c r="D21" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="21">
         <v>21</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>1</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>1092</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -16708,27 +16745,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020D327C-AF5A-4F48-8229-B8C7A547B10F}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1" t="s">
         <v>1272</v>
       </c>
-      <c r="B1" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16736,7 +16773,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16744,59 +16781,51 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
         <v>161</v>
       </c>
     </row>
@@ -16812,26 +16841,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5374C0-011E-45E4-BE95-3545615AB94A}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="157" workbookViewId="0">
+    <sheetView zoomScale="157" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="60.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -16839,7 +16868,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -16847,7 +16876,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -16855,7 +16884,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -16863,7 +16892,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -16871,7 +16900,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -16879,7 +16908,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -16887,7 +16916,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -16895,7 +16924,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -16903,7 +16932,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -16912,7 +16941,7 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -16920,7 +16949,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -16928,7 +16957,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -16936,7 +16965,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -16944,7 +16973,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -16952,7 +16981,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -16960,7 +16989,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -16968,7 +16997,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -16976,7 +17005,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -16984,7 +17013,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -16992,7 +17021,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -17000,7 +17029,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -17008,7 +17037,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -17016,7 +17045,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -17024,7 +17053,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -17032,7 +17061,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -17040,7 +17069,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -17048,7 +17077,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -17056,7 +17085,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -17064,7 +17093,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -17072,7 +17101,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -17080,7 +17109,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -17088,7 +17117,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -17096,7 +17125,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -17104,7 +17133,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -17112,7 +17141,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -17120,7 +17149,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -17128,7 +17157,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -17136,7 +17165,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -17144,7 +17173,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -17152,7 +17181,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -17160,7 +17189,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -17168,7 +17197,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -17176,7 +17205,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -17184,7 +17213,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -17192,7 +17221,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -17200,7 +17229,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -17208,7 +17237,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -17232,17 +17261,17 @@
       <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.36328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>151</v>
@@ -17257,871 +17286,871 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C2">
         <v>3.2</v>
       </c>
       <c r="D2" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C3">
         <v>3.2</v>
       </c>
       <c r="D3" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C4">
         <v>3.2</v>
       </c>
       <c r="D4" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C5">
         <v>3.2</v>
       </c>
       <c r="D5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C6">
         <v>3.8</v>
       </c>
       <c r="D6" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C7">
         <v>3.8</v>
       </c>
       <c r="D7" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C8">
         <v>3.8</v>
       </c>
       <c r="D8" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C9">
         <v>2.8</v>
       </c>
       <c r="D9" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C10">
         <v>3.2</v>
       </c>
       <c r="D10" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C11">
         <v>3.3</v>
       </c>
       <c r="D11" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C13">
         <v>3.4</v>
       </c>
       <c r="D13" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C14">
         <v>2.2000000000000002</v>
       </c>
       <c r="D14" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C15">
         <v>2.2000000000000002</v>
       </c>
       <c r="D15" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C16">
         <v>2.2000000000000002</v>
       </c>
       <c r="D16" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C17">
         <v>3.6</v>
       </c>
       <c r="D17" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C18">
         <v>3.4</v>
       </c>
       <c r="D18" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C19">
         <v>3.4</v>
       </c>
       <c r="D19" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C20">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C21">
         <v>3.8</v>
       </c>
       <c r="D21" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C22">
         <v>3.6</v>
       </c>
       <c r="D22" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C23">
         <v>3.6</v>
       </c>
       <c r="D23" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C24">
         <v>2.4</v>
       </c>
       <c r="D24" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C25">
         <v>2.2000000000000002</v>
       </c>
       <c r="D25" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C26">
         <v>2.2000000000000002</v>
       </c>
       <c r="D26" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C27">
         <v>3.2</v>
       </c>
       <c r="D27" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C28">
         <v>3.2</v>
       </c>
       <c r="D28" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C29">
         <v>3.8</v>
       </c>
       <c r="D29" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C30">
         <v>3.8</v>
       </c>
       <c r="D30" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C31">
         <v>3.8</v>
       </c>
       <c r="D31" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C32">
         <v>4.5</v>
       </c>
       <c r="D32" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C33">
         <v>4.5</v>
       </c>
       <c r="D33" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C34">
         <v>4.5</v>
       </c>
       <c r="D34" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C35">
         <v>5.5</v>
       </c>
       <c r="D35" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C36">
         <v>5.5</v>
       </c>
       <c r="D36" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C37">
         <v>4.5</v>
       </c>
       <c r="D37" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C38">
         <v>5.5</v>
       </c>
       <c r="D38" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C39">
         <v>3.4</v>
       </c>
       <c r="D39" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C40">
         <v>3.2</v>
       </c>
       <c r="D40" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="C41">
         <v>2.8</v>
       </c>
       <c r="D41" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C42">
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="C43">
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C44">
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C45">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C47">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C48">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C49">
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C50">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C51">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C52">
         <v>3.8</v>
       </c>
       <c r="D52" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
   </sheetData>
@@ -18193,56 +18222,56 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -18251,47 +18280,47 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -18300,111 +18329,111 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B22" s="13"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C24" s="3"/>
     </row>
   </sheetData>

--- a/restaurantData/Restaurant_DB.xlsx
+++ b/restaurantData/Restaurant_DB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31FAC0D-A780-4861-9B6C-25C26E386E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{547C5119-8E8F-463E-90F5-62DD86C22474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{106D1393-4DC9-4DB8-A467-A49FAB233FCB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{106D1393-4DC9-4DB8-A467-A49FAB233FCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Restaurants" sheetId="3" r:id="rId1"/>
@@ -1849,10 +1849,6 @@
     <t>1, 12, 13, 18</t>
   </si>
   <si>
-    <t>Herzhafter Burger vom Süßkartoffel-Kidneybohnen-Patty, Tomate, karamellisierte 
-Zwiebeln, Salat, vegane Granatapfel-Minz-Mayo und Vollkorn-Bun mit Salat</t>
-  </si>
-  <si>
     <t>https://www.speisekarte.de/file/1152/1152318.01895fe3c7598a34290fa226e92a4832.350.jpg?v=96</t>
   </si>
   <si>
@@ -2273,10 +2269,6 @@
     <t>11, 19, 27, 31, 48</t>
   </si>
   <si>
-    <t>Leckeres Chorizo hausgeräuchert und gebraten 
-mit Apfelchutney und Cidre</t>
-  </si>
-  <si>
     <t>https://img.bildderfrau.de/img/rezepte/crop206622209/797511658-w1200-cv4_3-q85-dc1/Chorizo-mit-Apfelwein.jpg</t>
   </si>
   <si>
@@ -2295,10 +2287,6 @@
     <t>12, 13, 7</t>
   </si>
   <si>
-    <t>Schmackhafte hausgemachte Kroketten mit Serrano-Schinken 
-und Béchamelsauce</t>
-  </si>
-  <si>
     <t>https://www.hola.com/imagenes/cocina/recetas/20191217156471/croquetas-de-jamon-iberico/0-759-983/croquetas-de-jamon-m.jpg</t>
   </si>
   <si>
@@ -2764,10 +2752,6 @@
     <t>1, 15, 19, 21, 24, 27, 44, 46</t>
   </si>
   <si>
-    <t>Sushi mit gebackenen Garnelen, Mango, Avo,
-Spicy Mayo, geröstete Zwiebeln</t>
-  </si>
-  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT02yim0o29zD7wNQMr2OkNIK8AWjwOkzA3FYULjSVgjJmLqoLuvH11zbezbyXyVm9BSlU&amp;usqp=CAU</t>
   </si>
   <si>
@@ -2783,10 +2767,6 @@
     <t>15, 19, 21, 27, 28</t>
   </si>
   <si>
-    <t>Sushi mit gebackener Ente, Avo, Rucola, Phily Cheese,
-Teriyaki Sauce</t>
-  </si>
-  <si>
     <t>https://i.pinimg.com/736x/c1/ab/bf/c1abbf1d13ac30f675b6c668f74141a6.jpg</t>
   </si>
   <si>
@@ -2820,11 +2800,6 @@
     <t>1, 10, 19, 21, 27</t>
   </si>
   <si>
-    <t>Sushi mit Gurken, Avo, Koriander, Lauch
-Tempura, Japanische Omelett,
-Spicy Mayo</t>
-  </si>
-  <si>
     <t>sushi-rolls-mit-nishiki-reis-nori-käse-aal-algensalat-gurken-sesam-und-unagi-sauce-auf-schwarzem-schiefer-oder-steinschiefer-162044013.jpg (800×533) (dreamstime.com)</t>
   </si>
   <si>
@@ -4317,6 +4292,24 @@
   </si>
   <si>
     <t>Ort</t>
+  </si>
+  <si>
+    <t>Herzhafter Burger vom Süßkartoffel-Kidneybohnen-Patty, Tomate, karamellisierte Zwiebeln, Salat, vegane Granatapfel-Minz-Mayo und Vollkorn-Bun mit Salat</t>
+  </si>
+  <si>
+    <t>Leckeres Chorizo hausgeräuchert und gebraten mit Apfelchutney und Cidre</t>
+  </si>
+  <si>
+    <t>Schmackhafte hausgemachte Kroketten mit Serrano-Schinken und Béchamelsauce</t>
+  </si>
+  <si>
+    <t>Sushi mit gebackenen Garnelen, Mango, Avo,Spicy Mayo, geröstete Zwiebeln</t>
+  </si>
+  <si>
+    <t>Sushi mit gebackener Ente, Avo, Rucola, Phily Cheese,Teriyaki Sauce</t>
+  </si>
+  <si>
+    <t>Sushi mit Gurken, Avo, Koriander, LauchTempura, Japanische Omelett,Spicy Mayo</t>
   </si>
 </sst>
 </file>
@@ -5220,7 +5213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721D09D1-6061-4240-90BA-F30DB895FBD6}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="97" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="97" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -6432,7 +6425,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -6440,10 +6433,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="C3" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -6451,7 +6444,7 @@
     </row>
     <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6459,7 +6452,7 @@
     </row>
     <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -6491,16 +6484,16 @@
         <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="C1" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="D1" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="E1" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
     </row>
   </sheetData>
@@ -6512,8 +6505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB17E25-B77B-4700-B7C6-1DB9B3E38A2C}">
   <dimension ref="A1:N150"/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="D1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9452,16 +9445,16 @@
         <v>166</v>
       </c>
       <c r="I72" s="4" t="s">
+        <v>1411</v>
+      </c>
+      <c r="J72" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="J72" s="7" t="s">
+      <c r="K72" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="K72" s="4" t="s">
+      <c r="L72" s="4" t="s">
         <v>598</v>
-      </c>
-      <c r="L72" s="4" t="s">
-        <v>599</v>
       </c>
       <c r="M72" s="4">
         <v>15</v>
@@ -9475,7 +9468,7 @@
         <v>333</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D73" s="4">
         <v>9.4</v>
@@ -9484,25 +9477,25 @@
         <v>216</v>
       </c>
       <c r="F73" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>601</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>602</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I73" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="J73" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="J73" s="7" t="s">
+      <c r="K73" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="K73" s="4" t="s">
+      <c r="L73" s="4" t="s">
         <v>605</v>
-      </c>
-      <c r="L73" s="4" t="s">
-        <v>606</v>
       </c>
       <c r="M73" s="4">
         <v>15</v>
@@ -9516,7 +9509,7 @@
         <v>161</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D74" s="4">
         <v>13.5</v>
@@ -9525,25 +9518,25 @@
         <v>208</v>
       </c>
       <c r="F74" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>608</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>609</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I74" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="J74" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="J74" s="7" t="s">
+      <c r="K74" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="K74" s="4" t="s">
+      <c r="L74" s="4" t="s">
         <v>612</v>
-      </c>
-      <c r="L74" s="4" t="s">
-        <v>613</v>
       </c>
       <c r="M74" s="4">
         <v>18</v>
@@ -9557,7 +9550,7 @@
         <v>161</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D75" s="4">
         <v>13.5</v>
@@ -9566,7 +9559,7 @@
         <v>208</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>405</v>
@@ -9575,16 +9568,16 @@
         <v>166</v>
       </c>
       <c r="I75" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="J75" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="J75" s="7" t="s">
+      <c r="K75" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="K75" s="4" t="s">
+      <c r="L75" s="4" t="s">
         <v>618</v>
-      </c>
-      <c r="L75" s="4" t="s">
-        <v>619</v>
       </c>
       <c r="M75" s="4">
         <v>18</v>
@@ -9598,7 +9591,7 @@
         <v>161</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D76" s="4">
         <v>14.8</v>
@@ -9607,7 +9600,7 @@
         <v>163</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>405</v>
@@ -9616,13 +9609,13 @@
         <v>166</v>
       </c>
       <c r="I76" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="J76" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="J76" s="7" t="s">
+      <c r="K76" s="4" t="s">
         <v>623</v>
-      </c>
-      <c r="K76" s="4" t="s">
-        <v>624</v>
       </c>
       <c r="L76" s="4" t="s">
         <v>326</v>
@@ -9639,7 +9632,7 @@
         <v>161</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D77" s="4">
         <v>15.5</v>
@@ -9648,7 +9641,7 @@
         <v>163</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>405</v>
@@ -9657,16 +9650,16 @@
         <v>166</v>
       </c>
       <c r="I77" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="J77" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="J77" s="7" t="s">
+      <c r="K77" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="K77" s="4" t="s">
+      <c r="L77" s="4" t="s">
         <v>629</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>630</v>
       </c>
       <c r="M77" s="4">
         <v>18</v>
@@ -9689,25 +9682,25 @@
         <v>163</v>
       </c>
       <c r="F78" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>631</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>632</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I78" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="J78" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="J78" s="7" t="s">
+      <c r="K78" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="K78" s="4" t="s">
+      <c r="L78" s="4" t="s">
         <v>635</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>636</v>
       </c>
       <c r="M78" s="4">
         <v>14</v>
@@ -9721,7 +9714,7 @@
         <v>361</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D79" s="4">
         <v>12.9</v>
@@ -9730,7 +9723,7 @@
         <v>163</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>405</v>
@@ -9739,13 +9732,13 @@
         <v>166</v>
       </c>
       <c r="I79" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="J79" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="J79" s="7" t="s">
+      <c r="K79" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="L79" s="4" t="s">
         <v>409</v>
@@ -9762,7 +9755,7 @@
         <v>361</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D80" s="4">
         <v>14.9</v>
@@ -9771,25 +9764,25 @@
         <v>163</v>
       </c>
       <c r="F80" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G80" s="4" t="s">
         <v>643</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>644</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I80" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="J80" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="J80" s="7" t="s">
+      <c r="K80" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="K80" s="4" t="s">
+      <c r="L80" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="L80" s="4" t="s">
-        <v>648</v>
       </c>
       <c r="M80" s="4">
         <v>14</v>
@@ -9803,7 +9796,7 @@
         <v>361</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D81" s="4">
         <v>13.9</v>
@@ -9812,7 +9805,7 @@
         <v>163</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>405</v>
@@ -9821,13 +9814,13 @@
         <v>166</v>
       </c>
       <c r="I81" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="J81" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="J81" s="7" t="s">
+      <c r="K81" s="4" t="s">
         <v>652</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>653</v>
       </c>
       <c r="L81" s="4" t="s">
         <v>409</v>
@@ -9844,7 +9837,7 @@
         <v>361</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D82" s="4">
         <v>14.9</v>
@@ -9853,23 +9846,23 @@
         <v>163</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I82" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="J82" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="J82" s="7" t="s">
+      <c r="K82" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="K82" s="4" t="s">
+      <c r="L82" s="4" t="s">
         <v>658</v>
-      </c>
-      <c r="L82" s="4" t="s">
-        <v>659</v>
       </c>
       <c r="M82" s="4">
         <v>14</v>
@@ -9883,7 +9876,7 @@
         <v>361</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D83" s="4">
         <v>10.9</v>
@@ -9892,7 +9885,7 @@
         <v>208</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>550</v>
@@ -9901,16 +9894,16 @@
         <v>166</v>
       </c>
       <c r="I83" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="J83" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="J83" s="7" t="s">
+      <c r="K83" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="K83" s="4" t="s">
+      <c r="L83" s="4" t="s">
         <v>664</v>
-      </c>
-      <c r="L83" s="4" t="s">
-        <v>665</v>
       </c>
       <c r="M83" s="4">
         <v>14</v>
@@ -9924,7 +9917,7 @@
         <v>361</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D84" s="4">
         <v>9.9</v>
@@ -9933,7 +9926,7 @@
         <v>216</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>417</v>
@@ -9942,16 +9935,16 @@
         <v>166</v>
       </c>
       <c r="I84" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="J84" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="J84" s="7" t="s">
+      <c r="K84" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="K84" s="4" t="s">
+      <c r="L84" s="4" t="s">
         <v>670</v>
-      </c>
-      <c r="L84" s="4" t="s">
-        <v>671</v>
       </c>
       <c r="M84" s="4">
         <v>14</v>
@@ -9962,10 +9955,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>672</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>673</v>
       </c>
       <c r="D85" s="4">
         <v>13.8</v>
@@ -9974,7 +9967,7 @@
         <v>163</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>405</v>
@@ -9983,16 +9976,16 @@
         <v>166</v>
       </c>
       <c r="I85" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="J85" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="J85" s="7" t="s">
+      <c r="K85" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="K85" s="4" t="s">
+      <c r="L85" s="4" t="s">
         <v>677</v>
-      </c>
-      <c r="L85" s="4" t="s">
-        <v>678</v>
       </c>
       <c r="M85" s="4">
         <v>11</v>
@@ -10003,10 +9996,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D86" s="4">
         <v>13.8</v>
@@ -10015,7 +10008,7 @@
         <v>163</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G86" s="4">
         <v>18</v>
@@ -10024,16 +10017,16 @@
         <v>166</v>
       </c>
       <c r="I86" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="J86" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="K86" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="K86" s="4" t="s">
+      <c r="L86" s="4" t="s">
         <v>683</v>
-      </c>
-      <c r="L86" s="4" t="s">
-        <v>684</v>
       </c>
       <c r="M86" s="4">
         <v>11</v>
@@ -10044,10 +10037,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D87" s="4">
         <v>13.5</v>
@@ -10056,7 +10049,7 @@
         <v>208</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G87" s="4">
         <v>6</v>
@@ -10065,16 +10058,16 @@
         <v>166</v>
       </c>
       <c r="I87" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="J87" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="J87" s="7" t="s">
+      <c r="K87" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="K87" s="4" t="s">
+      <c r="L87" s="4" t="s">
         <v>689</v>
-      </c>
-      <c r="L87" s="4" t="s">
-        <v>690</v>
       </c>
       <c r="M87" s="4">
         <v>11</v>
@@ -10085,10 +10078,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D88" s="4">
         <v>12.5</v>
@@ -10097,25 +10090,25 @@
         <v>208</v>
       </c>
       <c r="F88" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>692</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>693</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I88" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="J88" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="J88" s="7" t="s">
+      <c r="K88" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="K88" s="4" t="s">
+      <c r="L88" s="4" t="s">
         <v>696</v>
-      </c>
-      <c r="L88" s="4" t="s">
-        <v>697</v>
       </c>
       <c r="M88" s="4">
         <v>11</v>
@@ -10126,10 +10119,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D89" s="4">
         <v>13.5</v>
@@ -10138,25 +10131,25 @@
         <v>208</v>
       </c>
       <c r="F89" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="G89" s="4" t="s">
         <v>699</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>700</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I89" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J89" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="J89" s="7" t="s">
+      <c r="K89" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="K89" s="4" t="s">
+      <c r="L89" s="4" t="s">
         <v>703</v>
-      </c>
-      <c r="L89" s="4" t="s">
-        <v>704</v>
       </c>
       <c r="M89" s="4">
         <v>11</v>
@@ -10167,10 +10160,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D90" s="4">
         <v>13.8</v>
@@ -10179,25 +10172,25 @@
         <v>163</v>
       </c>
       <c r="F90" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="G90" s="4" t="s">
         <v>706</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>707</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I90" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="J90" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="J90" s="7" t="s">
+      <c r="K90" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="K90" s="4" t="s">
-        <v>710</v>
-      </c>
       <c r="L90" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M90" s="4">
         <v>11</v>
@@ -10208,10 +10201,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D91" s="4">
         <v>13.8</v>
@@ -10220,25 +10213,25 @@
         <v>163</v>
       </c>
       <c r="F91" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="G91" s="4" t="s">
         <v>712</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>713</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I91" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="J91" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="J91" s="7" t="s">
+      <c r="K91" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="K91" s="4" t="s">
+      <c r="L91" s="4" t="s">
         <v>716</v>
-      </c>
-      <c r="L91" s="4" t="s">
-        <v>717</v>
       </c>
       <c r="M91" s="4">
         <v>11</v>
@@ -10249,10 +10242,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D92" s="4">
         <v>12.5</v>
@@ -10261,25 +10254,25 @@
         <v>163</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I92" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="J92" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="J92" s="7" t="s">
+      <c r="K92" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="K92" s="4" t="s">
+      <c r="L92" s="4" t="s">
         <v>722</v>
-      </c>
-      <c r="L92" s="4" t="s">
-        <v>723</v>
       </c>
       <c r="M92" s="4">
         <v>11</v>
@@ -10290,10 +10283,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D93" s="4">
         <v>13.8</v>
@@ -10302,23 +10295,23 @@
         <v>163</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I93" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="J93" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="J93" s="7" t="s">
+      <c r="K93" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="K93" s="4" t="s">
+      <c r="L93" s="4" t="s">
         <v>728</v>
-      </c>
-      <c r="L93" s="4" t="s">
-        <v>729</v>
       </c>
       <c r="M93" s="4">
         <v>11</v>
@@ -10332,7 +10325,7 @@
         <v>361</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D94" s="4">
         <v>6.8</v>
@@ -10341,23 +10334,23 @@
         <v>163</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I94" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="J94" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="J94" s="7" t="s">
+      <c r="K94" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="K94" s="4" t="s">
-        <v>734</v>
-      </c>
       <c r="L94" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M94" s="4">
         <v>13</v>
@@ -10371,7 +10364,7 @@
         <v>361</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D95" s="4">
         <v>7.9</v>
@@ -10380,7 +10373,7 @@
         <v>163</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>405</v>
@@ -10389,16 +10382,16 @@
         <v>166</v>
       </c>
       <c r="I95" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="J95" s="7" t="s">
+      <c r="L95" s="4" t="s">
         <v>738</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="L95" s="4" t="s">
-        <v>740</v>
       </c>
       <c r="M95" s="4">
         <v>13</v>
@@ -10412,7 +10405,7 @@
         <v>361</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D96" s="4">
         <v>7.4</v>
@@ -10421,25 +10414,25 @@
         <v>163</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I96" s="4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="L96" s="4" t="s">
         <v>744</v>
-      </c>
-      <c r="J96" s="7" t="s">
-        <v>745</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="L96" s="4" t="s">
-        <v>747</v>
       </c>
       <c r="M96" s="4">
         <v>13</v>
@@ -10453,7 +10446,7 @@
         <v>361</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D97" s="4">
         <v>6.9</v>
@@ -10462,7 +10455,7 @@
         <v>208</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G97" s="4">
         <v>1</v>
@@ -10471,16 +10464,16 @@
         <v>166</v>
       </c>
       <c r="I97" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="L97" s="4" t="s">
         <v>750</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="K97" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="L97" s="4" t="s">
-        <v>753</v>
       </c>
       <c r="M97" s="4">
         <v>13</v>
@@ -10494,7 +10487,7 @@
         <v>361</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D98" s="4">
         <v>7.2</v>
@@ -10503,23 +10496,23 @@
         <v>208</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I98" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="L98" s="4" t="s">
         <v>756</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="K98" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="L98" s="4" t="s">
-        <v>759</v>
       </c>
       <c r="M98" s="4">
         <v>13</v>
@@ -10533,7 +10526,7 @@
         <v>361</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D99" s="4">
         <v>8.5</v>
@@ -10542,7 +10535,7 @@
         <v>163</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G99" s="4">
         <v>4</v>
@@ -10551,16 +10544,16 @@
         <v>166</v>
       </c>
       <c r="I99" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="L99" s="4" t="s">
         <v>762</v>
-      </c>
-      <c r="J99" s="7" t="s">
-        <v>763</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="L99" s="4" t="s">
-        <v>765</v>
       </c>
       <c r="M99" s="4">
         <v>13</v>
@@ -10574,7 +10567,7 @@
         <v>361</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D100" s="4">
         <v>9.9</v>
@@ -10583,7 +10576,7 @@
         <v>163</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="G100" s="4">
         <v>15</v>
@@ -10592,16 +10585,16 @@
         <v>166</v>
       </c>
       <c r="I100" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="L100" s="4" t="s">
         <v>768</v>
-      </c>
-      <c r="J100" s="7" t="s">
-        <v>769</v>
-      </c>
-      <c r="K100" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="L100" s="4" t="s">
-        <v>771</v>
       </c>
       <c r="M100" s="4">
         <v>13</v>
@@ -10615,7 +10608,7 @@
         <v>361</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D101" s="4">
         <v>8.9</v>
@@ -10624,25 +10617,25 @@
         <v>163</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="M101" s="4">
         <v>13</v>
@@ -10656,7 +10649,7 @@
         <v>230</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D102" s="4">
         <v>10.9</v>
@@ -10665,23 +10658,23 @@
         <v>216</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I102" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="L102" s="4" t="s">
         <v>778</v>
-      </c>
-      <c r="J102" s="7" t="s">
-        <v>779</v>
-      </c>
-      <c r="K102" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="L102" s="4" t="s">
-        <v>781</v>
       </c>
       <c r="M102" s="4">
         <v>19</v>
@@ -10695,7 +10688,7 @@
         <v>230</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D103" s="4">
         <v>10.9</v>
@@ -10704,23 +10697,23 @@
         <v>216</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I103" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="L103" s="4" t="s">
         <v>784</v>
-      </c>
-      <c r="J103" s="7" t="s">
-        <v>785</v>
-      </c>
-      <c r="K103" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="L103" s="4" t="s">
-        <v>787</v>
       </c>
       <c r="M103" s="4">
         <v>19</v>
@@ -10734,7 +10727,7 @@
         <v>230</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D104" s="4">
         <v>12.5</v>
@@ -10743,23 +10736,23 @@
         <v>208</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I104" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="L104" s="4" t="s">
         <v>790</v>
-      </c>
-      <c r="J104" s="7" t="s">
-        <v>791</v>
-      </c>
-      <c r="K104" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="L104" s="4" t="s">
-        <v>793</v>
       </c>
       <c r="M104" s="4">
         <v>19</v>
@@ -10773,7 +10766,7 @@
         <v>230</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D105" s="4">
         <v>18.7</v>
@@ -10782,23 +10775,23 @@
         <v>163</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I105" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="L105" s="4" t="s">
         <v>796</v>
-      </c>
-      <c r="J105" s="7" t="s">
-        <v>797</v>
-      </c>
-      <c r="K105" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="L105" s="4" t="s">
-        <v>799</v>
       </c>
       <c r="M105" s="4">
         <v>19</v>
@@ -10812,7 +10805,7 @@
         <v>230</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D106" s="4">
         <v>14.9</v>
@@ -10821,23 +10814,23 @@
         <v>163</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I106" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="L106" s="4" t="s">
         <v>801</v>
-      </c>
-      <c r="J106" s="7" t="s">
-        <v>802</v>
-      </c>
-      <c r="K106" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="L106" s="4" t="s">
-        <v>804</v>
       </c>
       <c r="M106" s="4">
         <v>19</v>
@@ -10851,7 +10844,7 @@
         <v>230</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D107" s="4">
         <v>15.9</v>
@@ -10860,23 +10853,23 @@
         <v>163</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I107" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="L107" s="4" t="s">
         <v>807</v>
-      </c>
-      <c r="J107" s="7" t="s">
-        <v>808</v>
-      </c>
-      <c r="K107" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="L107" s="4" t="s">
-        <v>810</v>
       </c>
       <c r="M107" s="4">
         <v>19</v>
@@ -10890,7 +10883,7 @@
         <v>230</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D108" s="4">
         <v>14.9</v>
@@ -10899,23 +10892,23 @@
         <v>208</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I108" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="J108" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="L108" s="4" t="s">
         <v>813</v>
-      </c>
-      <c r="J108" s="7" t="s">
-        <v>814</v>
-      </c>
-      <c r="K108" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="L108" s="4" t="s">
-        <v>816</v>
       </c>
       <c r="M108" s="4">
         <v>19</v>
@@ -10929,7 +10922,7 @@
         <v>230</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D109" s="4">
         <v>18.5</v>
@@ -10938,23 +10931,23 @@
         <v>163</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I109" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="L109" s="4" t="s">
         <v>819</v>
-      </c>
-      <c r="J109" s="7" t="s">
-        <v>820</v>
-      </c>
-      <c r="K109" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="L109" s="4" t="s">
-        <v>822</v>
       </c>
       <c r="M109" s="4">
         <v>19</v>
@@ -10968,7 +10961,7 @@
         <v>230</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D110" s="4">
         <v>16.399999999999999</v>
@@ -10977,23 +10970,23 @@
         <v>163</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I110" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="J110" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="L110" s="4" t="s">
         <v>825</v>
-      </c>
-      <c r="J110" s="7" t="s">
-        <v>826</v>
-      </c>
-      <c r="K110" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="L110" s="4" t="s">
-        <v>828</v>
       </c>
       <c r="M110" s="4">
         <v>19</v>
@@ -11007,7 +11000,7 @@
         <v>230</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D111" s="4">
         <v>8.5</v>
@@ -11016,23 +11009,23 @@
         <v>163</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I111" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="L111" s="4" t="s">
         <v>831</v>
-      </c>
-      <c r="J111" s="7" t="s">
-        <v>832</v>
-      </c>
-      <c r="K111" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="L111" s="4" t="s">
-        <v>834</v>
       </c>
       <c r="M111" s="4">
         <v>20</v>
@@ -11046,7 +11039,7 @@
         <v>230</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D112" s="4">
         <v>7.5</v>
@@ -11055,23 +11048,23 @@
         <v>208</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I112" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="L112" s="4" t="s">
         <v>837</v>
-      </c>
-      <c r="J112" s="7" t="s">
-        <v>838</v>
-      </c>
-      <c r="K112" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="L112" s="4" t="s">
-        <v>840</v>
       </c>
       <c r="M112" s="4">
         <v>20</v>
@@ -11085,7 +11078,7 @@
         <v>230</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D113" s="4">
         <v>7.5</v>
@@ -11094,23 +11087,23 @@
         <v>208</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I113" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="L113" s="4" t="s">
         <v>843</v>
-      </c>
-      <c r="J113" s="7" t="s">
-        <v>844</v>
-      </c>
-      <c r="K113" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="L113" s="4" t="s">
-        <v>846</v>
       </c>
       <c r="M113" s="4">
         <v>20</v>
@@ -11124,7 +11117,7 @@
         <v>230</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D114" s="4">
         <v>7.5</v>
@@ -11133,23 +11126,23 @@
         <v>216</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I114" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="J114" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="L114" s="4" t="s">
         <v>849</v>
-      </c>
-      <c r="J114" s="7" t="s">
-        <v>850</v>
-      </c>
-      <c r="K114" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="L114" s="4" t="s">
-        <v>852</v>
       </c>
       <c r="M114" s="4">
         <v>20</v>
@@ -11163,7 +11156,7 @@
         <v>230</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D115" s="4">
         <v>8.5</v>
@@ -11172,23 +11165,23 @@
         <v>163</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M115" s="4">
         <v>20</v>
@@ -11199,10 +11192,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D116" s="4">
         <v>8</v>
@@ -11211,23 +11204,23 @@
         <v>216</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I116" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="L116" s="4" t="s">
         <v>860</v>
-      </c>
-      <c r="J116" s="7" t="s">
-        <v>861</v>
-      </c>
-      <c r="K116" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="L116" s="4" t="s">
-        <v>863</v>
       </c>
       <c r="M116" s="4">
         <v>21</v>
@@ -11238,10 +11231,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D117" s="4">
         <v>7</v>
@@ -11250,23 +11243,23 @@
         <v>216</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I117" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="L117" s="4" t="s">
         <v>865</v>
-      </c>
-      <c r="J117" s="7" t="s">
-        <v>866</v>
-      </c>
-      <c r="K117" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="L117" s="4" t="s">
-        <v>868</v>
       </c>
       <c r="M117" s="4">
         <v>21</v>
@@ -11277,10 +11270,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D118" s="4">
         <v>9</v>
@@ -11289,23 +11282,23 @@
         <v>216</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I118" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="J118" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="L118" s="4" t="s">
         <v>871</v>
-      </c>
-      <c r="J118" s="7" t="s">
-        <v>872</v>
-      </c>
-      <c r="K118" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="L118" s="4" t="s">
-        <v>874</v>
       </c>
       <c r="M118" s="4">
         <v>21</v>
@@ -11316,10 +11309,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D119" s="4">
         <v>5</v>
@@ -11328,23 +11321,23 @@
         <v>216</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I119" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="L119" s="4" t="s">
         <v>877</v>
-      </c>
-      <c r="J119" s="7" t="s">
-        <v>878</v>
-      </c>
-      <c r="K119" s="4" t="s">
-        <v>879</v>
-      </c>
-      <c r="L119" s="4" t="s">
-        <v>880</v>
       </c>
       <c r="M119" s="4">
         <v>21</v>
@@ -11355,10 +11348,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D120" s="4">
         <v>8</v>
@@ -11367,23 +11360,23 @@
         <v>163</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I120" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="L120" s="4" t="s">
         <v>883</v>
-      </c>
-      <c r="J120" s="7" t="s">
-        <v>884</v>
-      </c>
-      <c r="K120" s="4" t="s">
-        <v>885</v>
-      </c>
-      <c r="L120" s="4" t="s">
-        <v>886</v>
       </c>
       <c r="M120" s="4">
         <v>21</v>
@@ -11394,10 +11387,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D121" s="4">
         <v>10</v>
@@ -11406,23 +11399,23 @@
         <v>163</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="M121" s="4">
         <v>21</v>
@@ -11433,10 +11426,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D122" s="4">
         <v>4</v>
@@ -11445,23 +11438,23 @@
         <v>163</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I122" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="J122" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="L122" s="4" t="s">
         <v>894</v>
-      </c>
-      <c r="J122" s="7" t="s">
-        <v>895</v>
-      </c>
-      <c r="K122" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="L122" s="4" t="s">
-        <v>897</v>
       </c>
       <c r="M122" s="4">
         <v>21</v>
@@ -11472,10 +11465,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D123" s="4">
         <v>8</v>
@@ -11484,23 +11477,23 @@
         <v>163</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>900</v>
+        <v>1414</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="M123" s="4">
         <v>21</v>
@@ -11511,10 +11504,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D124" s="4">
         <v>8</v>
@@ -11523,23 +11516,23 @@
         <v>163</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>906</v>
+        <v>1415</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="M124" s="4">
         <v>21</v>
@@ -11550,10 +11543,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="D125" s="4">
         <v>8</v>
@@ -11562,23 +11555,23 @@
         <v>163</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="M125" s="4">
         <v>21</v>
@@ -11589,10 +11582,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="D126" s="4">
         <v>7</v>
@@ -11601,23 +11594,23 @@
         <v>208</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>918</v>
+        <v>1416</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="M126" s="4">
         <v>21</v>
@@ -11628,10 +11621,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="D127" s="4">
         <v>7</v>
@@ -11640,23 +11633,23 @@
         <v>208</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="M127" s="4">
         <v>21</v>
@@ -11667,10 +11660,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="D128" s="4">
         <v>8</v>
@@ -11679,23 +11672,23 @@
         <v>208</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="M128" s="4">
         <v>21</v>
@@ -11706,10 +11699,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="D129" s="4">
         <v>10.9</v>
@@ -11718,20 +11711,20 @@
         <v>208</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="L129" s="4" t="s">
         <v>279</v>
@@ -11745,10 +11738,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>933</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>939</v>
       </c>
       <c r="D130" s="4">
         <v>10.9</v>
@@ -11757,20 +11750,20 @@
         <v>208</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="K130" s="4" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="L130" s="4" t="s">
         <v>279</v>
@@ -11784,10 +11777,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="D131" s="4">
         <v>11</v>
@@ -11796,23 +11789,23 @@
         <v>163</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="K131" s="4" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="M131" s="4">
         <v>22</v>
@@ -11823,10 +11816,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="D132" s="4">
         <v>10.9</v>
@@ -11835,20 +11828,20 @@
         <v>216</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="K132" s="4" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="L132" s="4" t="s">
         <v>279</v>
@@ -11862,10 +11855,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="D133" s="4">
         <v>10.9</v>
@@ -11874,23 +11867,23 @@
         <v>163</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="K133" s="4" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="M133" s="4">
         <v>22</v>
@@ -11901,10 +11894,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="D134" s="4">
         <v>10.8</v>
@@ -11913,23 +11906,23 @@
         <v>208</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="K134" s="4" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="M134" s="4">
         <v>22</v>
@@ -11940,10 +11933,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="D135" s="4">
         <v>11.2</v>
@@ -11952,20 +11945,20 @@
         <v>208</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="J135" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>962</v>
-      </c>
-      <c r="K135" s="4" t="s">
-        <v>968</v>
       </c>
       <c r="L135" s="4" t="s">
         <v>592</v>
@@ -11979,10 +11972,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="D136" s="4">
         <v>11.6</v>
@@ -11991,23 +11984,23 @@
         <v>163</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="M136" s="4">
         <v>22</v>
@@ -12018,10 +12011,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="D137" s="4">
         <v>11.5</v>
@@ -12030,23 +12023,23 @@
         <v>208</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="G137" s="4"/>
       <c r="H137" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="M137" s="4">
         <v>22</v>
@@ -12057,10 +12050,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="D138" s="4">
         <v>10.9</v>
@@ -12069,23 +12062,23 @@
         <v>216</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="K138" s="4" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="M138" s="4">
         <v>22</v>
@@ -12096,10 +12089,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="D139" s="4">
         <v>14.9</v>
@@ -12108,23 +12101,23 @@
         <v>163</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="K139" s="4" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="M139" s="4">
         <v>22</v>
@@ -12135,10 +12128,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="D140" s="4">
         <v>16.5</v>
@@ -12147,23 +12140,23 @@
         <v>163</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="K140" s="4" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="M140" s="4">
         <v>22</v>
@@ -12174,10 +12167,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="D141" s="4">
         <v>15.9</v>
@@ -12186,23 +12179,23 @@
         <v>208</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="J141" s="7" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="K141" s="4" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="M141" s="4">
         <v>22</v>
@@ -12213,10 +12206,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="D142" s="4">
         <v>16.2</v>
@@ -12225,23 +12218,23 @@
         <v>216</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="J142" s="7" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="M142" s="4">
         <v>22</v>
@@ -12252,10 +12245,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="D143" s="4">
         <v>15.7</v>
@@ -12264,23 +12257,23 @@
         <v>163</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="J143" s="7" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="M143" s="4">
         <v>22</v>
@@ -12291,10 +12284,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="D144" s="4">
         <v>16.5</v>
@@ -12303,23 +12296,23 @@
         <v>163</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="J144" s="7" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="M144" s="4">
         <v>22</v>
@@ -12330,10 +12323,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="D145" s="4">
         <v>17</v>
@@ -12342,23 +12335,23 @@
         <v>163</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="J145" s="7" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="M145" s="4">
         <v>23</v>
@@ -12369,10 +12362,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="D146" s="4">
         <v>14</v>
@@ -12381,20 +12374,20 @@
         <v>208</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="J146" s="7" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="L146" s="4" t="s">
         <v>465</v>
@@ -12408,10 +12401,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="D147" s="4">
         <v>13</v>
@@ -12420,23 +12413,23 @@
         <v>216</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="G147" s="4"/>
       <c r="H147" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="J147" s="7" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="M147" s="4">
         <v>23</v>
@@ -12447,10 +12440,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D148" s="4">
         <v>13</v>
@@ -12459,23 +12452,23 @@
         <v>208</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="G148" s="4"/>
       <c r="H148" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="J148" s="7" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="M148" s="4">
         <v>23</v>
@@ -12486,10 +12479,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="D149" s="4">
         <v>14</v>
@@ -12498,23 +12491,23 @@
         <v>163</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="J149" s="7" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="M149" s="4">
         <v>23</v>
@@ -12525,10 +12518,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="D150" s="4">
         <v>13</v>
@@ -12537,23 +12530,23 @@
         <v>163</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="4" t="s">
         <v>166</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="J150" s="7" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="M150" s="4">
         <v>23</v>
@@ -12737,7 +12730,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -12754,13 +12747,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.35">
@@ -12768,13 +12761,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.35">
@@ -12782,13 +12775,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.35">
@@ -12799,10 +12792,10 @@
         <v>154</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -12858,7 +12851,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>158</v>
@@ -12870,7 +12863,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -12878,13 +12871,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -12900,13 +12893,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
@@ -12917,13 +12910,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -12934,13 +12927,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
@@ -12951,13 +12944,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -12968,13 +12961,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
@@ -12985,13 +12978,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -13002,13 +12995,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -13019,13 +13012,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
@@ -13036,13 +13029,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -13053,13 +13046,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
@@ -13070,13 +13063,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -13087,13 +13080,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -13104,13 +13097,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
@@ -13121,13 +13114,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
@@ -13138,13 +13131,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E17" s="3">
         <v>3</v>
@@ -13155,13 +13148,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
@@ -13172,13 +13165,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
@@ -13189,13 +13182,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -13206,13 +13199,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -13223,13 +13216,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E22" s="3">
         <v>2</v>
@@ -13240,13 +13233,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
@@ -13257,13 +13250,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E24" s="3">
         <v>2</v>
@@ -13277,10 +13270,10 @@
         <v>190</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
@@ -13291,13 +13284,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
@@ -13308,13 +13301,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E27" s="3">
         <v>2</v>
@@ -13325,13 +13318,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -13342,13 +13335,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E29" s="3">
         <v>2</v>
@@ -13359,13 +13352,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E30" s="3">
         <v>2</v>
@@ -13379,10 +13372,10 @@
         <v>201</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E31" s="3">
         <v>2</v>
@@ -13393,13 +13386,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -13416,7 +13409,7 @@
         <v>272</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E33" s="3">
         <v>3</v>
@@ -13427,13 +13420,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E34" s="3">
         <v>3</v>
@@ -13444,13 +13437,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>272</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E35" s="3">
         <v>3</v>
@@ -13464,10 +13457,10 @@
         <v>207</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
@@ -13478,13 +13471,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>272</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E37" s="3">
         <v>3</v>
@@ -13495,13 +13488,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -13512,13 +13505,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>272</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E39" s="3">
         <v>3</v>
@@ -13529,13 +13522,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E40" s="3">
         <v>3</v>
@@ -13546,13 +13539,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>272</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E41" s="3">
         <v>3</v>
@@ -13563,13 +13556,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>272</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E42" s="3">
         <v>3</v>
@@ -13580,13 +13573,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
@@ -13597,13 +13590,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
@@ -13614,13 +13607,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E45" s="3">
         <v>3</v>
@@ -13631,13 +13624,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E46" s="3">
         <v>3</v>
@@ -13648,13 +13641,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E47" s="3">
         <v>3</v>
@@ -13665,13 +13658,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
@@ -13682,13 +13675,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E49" s="3">
         <v>3</v>
@@ -13699,13 +13692,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E50" s="3">
         <v>3</v>
@@ -13716,13 +13709,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E51" s="3">
         <v>2</v>
@@ -13733,13 +13726,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E52" s="3">
         <v>2</v>
@@ -13750,13 +13743,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>272</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E53" s="3">
         <v>3</v>
@@ -13767,13 +13760,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -13784,13 +13777,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
@@ -13801,13 +13794,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E56" s="3">
         <v>3</v>
@@ -13818,13 +13811,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E57" s="3">
         <v>3</v>
@@ -13835,13 +13828,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E58" s="3">
         <v>2</v>
@@ -13852,13 +13845,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E59" s="3">
         <v>2</v>
@@ -13869,13 +13862,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>272</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E60" s="3">
         <v>3</v>
@@ -13886,13 +13879,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>272</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E61" s="3">
         <v>3</v>
@@ -13903,13 +13896,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -13920,13 +13913,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E63" s="3">
         <v>1</v>
@@ -13937,13 +13930,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
@@ -13954,13 +13947,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>272</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E65" s="3">
         <v>3</v>
@@ -13971,13 +13964,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E66" s="3">
         <v>2</v>
@@ -13991,10 +13984,10 @@
         <v>310</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E67" s="3">
         <v>2</v>
@@ -14005,13 +13998,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E68" s="3">
         <v>2</v>
@@ -14025,10 +14018,10 @@
         <v>321</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E69" s="3">
         <v>2</v>
@@ -14039,13 +14032,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E70" s="3">
         <v>2</v>
@@ -14056,13 +14049,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E71" s="3">
         <v>2</v>
@@ -14073,13 +14066,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E72" s="3">
         <v>1</v>
@@ -14090,13 +14083,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E73" s="3">
         <v>1</v>
@@ -14107,13 +14100,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E74" s="3">
         <v>3</v>
@@ -14124,13 +14117,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E75" s="3">
         <v>2</v>
@@ -14141,13 +14134,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E76" s="3">
         <v>3</v>
@@ -14158,13 +14151,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>272</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E77" s="3">
         <v>3</v>
@@ -14175,13 +14168,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>272</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E78" s="3">
         <v>3</v>
@@ -14192,13 +14185,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E79" s="3">
         <v>3</v>
@@ -14209,13 +14202,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E80" s="3">
         <v>1</v>
@@ -14226,13 +14219,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>272</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E81" s="3">
         <v>3</v>
@@ -14243,13 +14236,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>272</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E82" s="3">
         <v>3</v>
@@ -14260,13 +14253,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="C83" s="16" t="s">
         <v>272</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E83" s="3">
         <v>3</v>
@@ -14277,13 +14270,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>272</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E84" s="3">
         <v>3</v>
@@ -14294,13 +14287,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>272</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E85" s="3">
         <v>3</v>
@@ -14311,13 +14304,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E86" s="3">
         <v>1</v>
@@ -14328,13 +14321,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E87" s="3">
         <v>1</v>
@@ -14345,13 +14338,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E88" s="3">
         <v>2</v>
@@ -14362,13 +14355,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E89" s="3">
         <v>2</v>
@@ -14379,13 +14372,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E90" s="3">
         <v>1</v>
@@ -14396,13 +14389,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E91" s="3">
         <v>3</v>
@@ -14413,13 +14406,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E92" s="3">
         <v>2</v>
@@ -14430,13 +14423,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E93" s="3">
         <v>3</v>
@@ -14447,13 +14440,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E94" s="3">
         <v>2</v>
@@ -14467,10 +14460,10 @@
         <v>390</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E95" s="3">
         <v>1</v>
@@ -14481,13 +14474,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E96" s="3">
         <v>2</v>
@@ -14498,13 +14491,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E97" s="3">
         <v>2</v>
@@ -14515,13 +14508,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E98" s="3">
         <v>2</v>
@@ -14532,13 +14525,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E99" s="3">
         <v>1</v>
@@ -14549,13 +14542,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E100" s="3">
         <v>3</v>
@@ -14566,13 +14559,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E101" s="3">
         <v>3</v>
@@ -14583,13 +14576,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E102" s="3">
         <v>3</v>
@@ -14600,13 +14593,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="C103" s="16" t="s">
         <v>272</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E103" s="3">
         <v>3</v>
@@ -14617,13 +14610,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E104" s="3">
         <v>3</v>
@@ -14634,13 +14627,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E105" s="3">
         <v>3</v>
@@ -14651,13 +14644,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E106" s="3">
         <v>2</v>
@@ -14668,13 +14661,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E107" s="3">
         <v>1</v>
@@ -14685,13 +14678,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>272</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E108" s="3">
         <v>3</v>
@@ -14702,13 +14695,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E109" s="3">
         <v>3</v>
@@ -14719,13 +14712,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>272</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E110" s="3">
         <v>3</v>
@@ -14736,13 +14729,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E111" s="3">
         <v>2</v>
@@ -14753,13 +14746,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E112" s="3">
         <v>1</v>
@@ -14770,13 +14763,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E113" s="3">
         <v>1</v>
@@ -14787,13 +14780,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E114" s="3">
         <v>1</v>
@@ -14804,13 +14797,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E115" s="3">
         <v>3</v>
@@ -14821,13 +14814,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E116" s="3">
         <v>3</v>
@@ -14838,13 +14831,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="C117" s="16" t="s">
         <v>272</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E117" s="3">
         <v>3</v>
@@ -14855,13 +14848,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E118" s="3">
         <v>1</v>
@@ -14872,13 +14865,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E119" s="3">
         <v>2</v>
@@ -14889,13 +14882,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>272</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E120" s="3">
         <v>3</v>
@@ -14906,13 +14899,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E121" s="3">
         <v>3</v>
@@ -14923,13 +14916,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>272</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E122" s="3">
         <v>3</v>
@@ -14940,13 +14933,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>272</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E123" s="3">
         <v>3</v>
@@ -14957,13 +14950,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E124" s="3">
         <v>1</v>
@@ -14974,13 +14967,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E125" s="3">
         <v>1</v>
@@ -14991,13 +14984,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E126" s="3">
         <v>1</v>
@@ -15008,13 +15001,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E127" s="3">
         <v>1</v>
@@ -15025,13 +15018,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E128" s="3">
         <v>3</v>
@@ -15042,13 +15035,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E129" s="3">
         <v>1</v>
@@ -15059,13 +15052,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E130" s="3">
         <v>3</v>
@@ -15076,13 +15069,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>272</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E131" s="3">
         <v>3</v>
@@ -15093,13 +15086,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E132" s="3">
         <v>1</v>
@@ -15110,13 +15103,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E133" s="3">
         <v>3</v>
@@ -15127,13 +15120,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E134" s="3">
         <v>3</v>
@@ -15144,13 +15137,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E135" s="3">
         <v>3</v>
@@ -15161,13 +15154,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E136" s="3">
         <v>3</v>
@@ -15178,13 +15171,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>272</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E137" s="3">
         <v>3</v>
@@ -15195,13 +15188,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>272</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E138" s="3">
         <v>3</v>
@@ -15212,13 +15205,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E139" s="3">
         <v>1</v>
@@ -15229,13 +15222,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E140" s="3">
         <v>2</v>
@@ -15246,13 +15239,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>272</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E141" s="3">
         <v>3</v>
@@ -15263,13 +15256,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E142" s="3">
         <v>1</v>
@@ -15280,13 +15273,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E143" s="3">
         <v>2</v>
@@ -15297,13 +15290,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>272</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E144" s="3">
         <v>3</v>
@@ -15314,13 +15307,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E145" s="3">
         <v>3</v>
@@ -15331,13 +15324,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E146" s="3">
         <v>2</v>
@@ -15348,13 +15341,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E147" s="3">
         <v>2</v>
@@ -15365,13 +15358,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E148" s="3">
         <v>3</v>
@@ -15382,13 +15375,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E149" s="3">
         <v>2</v>
@@ -15399,13 +15392,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>272</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E150" s="3">
         <v>3</v>
@@ -15416,13 +15409,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E151" s="3">
         <v>1</v>
@@ -15433,7 +15426,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>154</v>
@@ -15447,7 +15440,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>154</v>
@@ -15461,7 +15454,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>154</v>
@@ -15475,7 +15468,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>154</v>
@@ -15489,7 +15482,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>154</v>
@@ -15503,7 +15496,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>154</v>
@@ -15517,7 +15510,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>154</v>
@@ -15531,7 +15524,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>154</v>
@@ -15545,7 +15538,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>154</v>
@@ -15559,7 +15552,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>154</v>
@@ -15573,7 +15566,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>154</v>
@@ -15587,7 +15580,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>154</v>
@@ -15601,7 +15594,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>154</v>
@@ -15615,7 +15608,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>154</v>
@@ -15629,7 +15622,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>154</v>
@@ -15643,7 +15636,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>154</v>
@@ -15657,7 +15650,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>154</v>
@@ -15671,7 +15664,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>154</v>
@@ -15685,7 +15678,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>154</v>
@@ -15699,7 +15692,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>154</v>
@@ -15713,7 +15706,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>154</v>
@@ -15727,7 +15720,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>154</v>
@@ -15741,7 +15734,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>154</v>
@@ -15755,7 +15748,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>154</v>
@@ -15769,7 +15762,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>154</v>
@@ -15783,7 +15776,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>154</v>
@@ -15797,7 +15790,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>154</v>
@@ -15811,7 +15804,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>154</v>
@@ -15825,7 +15818,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>154</v>
@@ -15839,7 +15832,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>154</v>
@@ -15853,7 +15846,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>154</v>
@@ -15867,7 +15860,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>154</v>
@@ -15881,7 +15874,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>154</v>
@@ -15895,7 +15888,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>154</v>
@@ -15909,7 +15902,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>154</v>
@@ -15923,7 +15916,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>154</v>
@@ -15937,7 +15930,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>154</v>
@@ -15951,7 +15944,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>154</v>
@@ -15965,7 +15958,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>154</v>
@@ -15979,7 +15972,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>154</v>
@@ -15993,7 +15986,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>154</v>
@@ -16007,7 +16000,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>154</v>
@@ -16021,7 +16014,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>154</v>
@@ -16035,7 +16028,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>154</v>
@@ -16049,7 +16042,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>154</v>
@@ -16063,7 +16056,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>154</v>
@@ -16077,7 +16070,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>154</v>
@@ -16091,7 +16084,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>154</v>
@@ -16105,7 +16098,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>154</v>
@@ -16119,13 +16112,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E201" s="3">
         <v>2</v>
@@ -16136,13 +16129,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E202" s="3">
         <v>1</v>
@@ -16153,13 +16146,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="C203" s="16" t="s">
         <v>272</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E203" s="3">
         <v>3</v>
@@ -16170,13 +16163,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E204" s="3">
         <v>1</v>
@@ -16187,13 +16180,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E205" s="3">
         <v>1</v>
@@ -16204,13 +16197,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E206" s="3">
         <v>2</v>
@@ -16221,13 +16214,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E207" s="3">
         <v>2</v>
@@ -16238,13 +16231,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E208" s="3">
         <v>3</v>
@@ -16255,13 +16248,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E209" s="3">
         <v>3</v>
@@ -16272,13 +16265,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E210" s="3">
         <v>2</v>
@@ -16289,13 +16282,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>272</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E211" s="3">
         <v>3</v>
@@ -16306,13 +16299,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="16" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="C212" s="16" t="s">
         <v>272</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E212" s="3">
         <v>3</v>
@@ -16323,13 +16316,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="C213" s="16" t="s">
         <v>272</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E213" s="3">
         <v>3</v>
@@ -16340,13 +16333,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E214" s="3">
         <v>3</v>
@@ -16357,13 +16350,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E215" s="3">
         <v>1</v>
@@ -16374,13 +16367,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>272</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E216" s="3">
         <v>3</v>
@@ -16391,13 +16384,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E217" s="3">
         <v>2</v>
@@ -16419,7 +16412,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16429,13 +16422,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>153</v>
@@ -16449,7 +16442,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>163</v>
@@ -16463,7 +16456,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>163</v>
@@ -16474,10 +16467,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>216</v>
@@ -16491,7 +16484,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>216</v>
@@ -16505,7 +16498,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>163</v>
@@ -16519,7 +16512,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>216</v>
@@ -16530,10 +16523,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>216</v>
@@ -16547,7 +16540,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>216</v>
@@ -16558,10 +16551,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>208</v>
@@ -16575,7 +16568,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>216</v>
@@ -16600,10 +16593,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>208</v>
@@ -16617,7 +16610,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>216</v>
@@ -16631,7 +16624,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>216</v>
@@ -16645,7 +16638,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>216</v>
@@ -16659,7 +16652,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>216</v>
@@ -16673,7 +16666,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>216</v>
@@ -16687,7 +16680,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>216</v>
@@ -16701,7 +16694,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>216</v>
@@ -16715,7 +16708,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>216</v>
@@ -16729,7 +16722,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>216</v>
@@ -16747,7 +16740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020D327C-AF5A-4F48-8229-B8C7A547B10F}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -16759,10 +16752,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="B1" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -16770,7 +16763,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -16818,7 +16811,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -16854,7 +16847,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>154</v>
@@ -16865,7 +16858,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -16873,7 +16866,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -16881,7 +16874,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -16889,7 +16882,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -16897,7 +16890,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -16905,7 +16898,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -16913,7 +16906,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -16921,7 +16914,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -16929,7 +16922,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -16937,7 +16930,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="E11" s="9"/>
     </row>
@@ -16946,7 +16939,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -16954,7 +16947,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -16962,7 +16955,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -16970,7 +16963,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -16978,7 +16971,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -16986,7 +16979,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -16994,7 +16987,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -17002,7 +16995,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -17010,7 +17003,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -17018,7 +17011,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -17026,7 +17019,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -17034,7 +17027,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -17042,7 +17035,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -17050,7 +17043,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -17058,7 +17051,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -17066,7 +17059,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -17074,7 +17067,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -17082,7 +17075,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -17090,7 +17083,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -17098,7 +17091,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -17106,7 +17099,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -17114,7 +17107,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -17122,7 +17115,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -17130,7 +17123,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -17138,7 +17131,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -17146,7 +17139,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -17154,7 +17147,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -17162,7 +17155,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -17170,7 +17163,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -17178,7 +17171,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -17186,7 +17179,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -17194,7 +17187,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -17202,7 +17195,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -17210,7 +17203,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -17218,7 +17211,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -17226,7 +17219,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -17234,7 +17227,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -17242,7 +17235,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
     </row>
   </sheetData>
@@ -17271,7 +17264,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>151</v>
@@ -17291,16 +17284,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="C2">
         <v>3.2</v>
       </c>
       <c r="D2" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17308,16 +17301,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="C3">
         <v>3.2</v>
       </c>
       <c r="D3" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17325,16 +17318,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="C4">
         <v>3.2</v>
       </c>
       <c r="D4" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17342,16 +17335,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="C5">
         <v>3.2</v>
       </c>
       <c r="D5" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17359,16 +17352,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="C6">
         <v>3.8</v>
       </c>
       <c r="D6" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17376,16 +17369,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="C7">
         <v>3.8</v>
       </c>
       <c r="D7" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17393,16 +17386,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="C8">
         <v>3.8</v>
       </c>
       <c r="D8" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17410,16 +17403,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="C9">
         <v>2.8</v>
       </c>
       <c r="D9" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17427,16 +17420,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="C10">
         <v>3.2</v>
       </c>
       <c r="D10" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17444,16 +17437,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="C11">
         <v>3.3</v>
       </c>
       <c r="D11" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17461,16 +17454,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17478,16 +17471,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="C13">
         <v>3.4</v>
       </c>
       <c r="D13" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17495,16 +17488,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="C14">
         <v>2.2000000000000002</v>
       </c>
       <c r="D14" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17512,16 +17505,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="C15">
         <v>2.2000000000000002</v>
       </c>
       <c r="D15" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17529,16 +17522,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="C16">
         <v>2.2000000000000002</v>
       </c>
       <c r="D16" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17546,16 +17539,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="C17">
         <v>3.6</v>
       </c>
       <c r="D17" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17563,16 +17556,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="C18">
         <v>3.4</v>
       </c>
       <c r="D18" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17580,16 +17573,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C19">
         <v>3.4</v>
       </c>
       <c r="D19" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17597,16 +17590,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="C20">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17614,16 +17607,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="C21">
         <v>3.8</v>
       </c>
       <c r="D21" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17631,16 +17624,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="C22">
         <v>3.6</v>
       </c>
       <c r="D22" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17648,16 +17641,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="C23">
         <v>3.6</v>
       </c>
       <c r="D23" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -17665,16 +17658,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="C24">
         <v>2.4</v>
       </c>
       <c r="D24" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -17682,16 +17675,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="C25">
         <v>2.2000000000000002</v>
       </c>
       <c r="D25" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -17699,16 +17692,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="C26">
         <v>2.2000000000000002</v>
       </c>
       <c r="D26" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -17716,16 +17709,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="C27">
         <v>3.2</v>
       </c>
       <c r="D27" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -17733,16 +17726,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="C28">
         <v>3.2</v>
       </c>
       <c r="D28" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -17750,16 +17743,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="C29">
         <v>3.8</v>
       </c>
       <c r="D29" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="116" x14ac:dyDescent="0.35">
@@ -17767,16 +17760,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="C30">
         <v>3.8</v>
       </c>
       <c r="D30" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -17784,16 +17777,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C31">
         <v>3.8</v>
       </c>
       <c r="D31" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
@@ -17801,16 +17794,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="C32">
         <v>4.5</v>
       </c>
       <c r="D32" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -17818,16 +17811,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="C33">
         <v>4.5</v>
       </c>
       <c r="D33" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -17835,16 +17828,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C34">
         <v>4.5</v>
       </c>
       <c r="D34" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -17852,16 +17845,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="C35">
         <v>5.5</v>
       </c>
       <c r="D35" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -17869,16 +17862,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="C36">
         <v>5.5</v>
       </c>
       <c r="D36" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -17886,16 +17879,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C37">
         <v>4.5</v>
       </c>
       <c r="D37" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -17903,16 +17896,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="C38">
         <v>5.5</v>
       </c>
       <c r="D38" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -17920,16 +17913,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="C39">
         <v>3.4</v>
       </c>
       <c r="D39" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -17937,16 +17930,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="C40">
         <v>3.2</v>
       </c>
       <c r="D40" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -17954,16 +17947,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="C41">
         <v>2.8</v>
       </c>
       <c r="D41" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
@@ -17971,16 +17964,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="C42">
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
@@ -17988,16 +17981,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="C43">
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="116" x14ac:dyDescent="0.35">
@@ -18005,16 +17998,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="C44">
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -18022,16 +18015,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="C45">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -18039,16 +18032,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -18056,16 +18049,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="C47">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -18073,16 +18066,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="C48">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -18090,16 +18083,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="C49">
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -18107,16 +18100,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="C50">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -18124,16 +18117,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="C51">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -18141,16 +18134,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="C52">
         <v>3.8</v>
       </c>
       <c r="D52" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
     </row>
   </sheetData>
@@ -18231,10 +18224,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
@@ -18245,10 +18238,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -18256,10 +18249,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -18267,7 +18260,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -18276,7 +18269,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -18285,7 +18278,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -18294,10 +18287,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -18305,7 +18298,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -18314,10 +18307,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -18325,7 +18318,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -18334,7 +18327,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -18343,7 +18336,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -18352,10 +18345,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -18363,10 +18356,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -18374,10 +18367,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -18385,10 +18378,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -18396,7 +18389,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -18405,7 +18398,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -18414,10 +18407,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">

--- a/restaurantData/Restaurant_DB.xlsx
+++ b/restaurantData/Restaurant_DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/normanschmickler/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D16EE026-D14F-4B29-8D7C-A1C7C7E672CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EBBF51-E63B-C647-BBA0-8C1E5DFAA38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{106D1393-4DC9-4DB8-A467-A49FAB233FCB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" activeTab="1" xr2:uid="{106D1393-4DC9-4DB8-A467-A49FAB233FCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Restaurants" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="1427">
   <si>
     <t>Restaurant_ID</t>
   </si>
@@ -4276,39 +4276,6 @@
     <t>Restaurant_Link</t>
   </si>
   <si>
-    <t>BODEGA | Tapasbar &amp; Restaurant Regensburg (bodega-regensburg.de)</t>
-  </si>
-  <si>
-    <t>Bar-ravel</t>
-  </si>
-  <si>
-    <t>BOLERO's Regensburg – Spanish Grill &amp; Tapas Bar Regensburg (boleros-tapas.de)</t>
-  </si>
-  <si>
-    <t>Burgerheart Regensburg! Burgergrill &amp; BBQ</t>
-  </si>
-  <si>
-    <t>stefanos taverna (taverna-stefanos.de)</t>
-  </si>
-  <si>
-    <t>Papageno - Mittelmeerküche (papageno-regensburg.de)</t>
-  </si>
-  <si>
-    <t>Hofbräuhaus Regensburg - bayerische Wirtshauskultur (hofbraeuhaus-regensburg.de)</t>
-  </si>
-  <si>
-    <t>Order now at Ganesha Regensburg | Regensburg</t>
-  </si>
-  <si>
-    <t>Taj Mahal Regensburg - Indisches Restaurant (tajmahal-regensburg.de)</t>
-  </si>
-  <si>
-    <t>RiceCorn (ricecorn-regensburg.de)</t>
-  </si>
-  <si>
-    <t>Peppers - mexikanisch essen am Haidplatz im Herzen Regensburgs (peppers-regensburg.de)</t>
-  </si>
-  <si>
     <t>https://www.janatuerlich.at/wp-content/uploads/2020/11/139303_AdobeStock_207702101_Kaeng-Pled-Ped-Yang-Roasted-Duck-in-Red-Curry-scaled.jpg</t>
   </si>
   <si>
@@ -4343,16 +4310,47 @@
   </si>
   <si>
     <t>https://www.malteskitchen.de/wp-content/uploads/2020/05/final_sevo_gts_pulledpork_burger-4276-768x512.jpg</t>
+  </si>
+  <si>
+    <t>http://bodega-regensburg.de</t>
+  </si>
+  <si>
+    <t>https://www.papageno-regensburg.de</t>
+  </si>
+  <si>
+    <t>http://www.taverna-stefanos.de</t>
+  </si>
+  <si>
+    <t>https://regensburg.burgerheart.com</t>
+  </si>
+  <si>
+    <t>https://boleros-tapas.de</t>
+  </si>
+  <si>
+    <t>https://www.thethai.info</t>
+  </si>
+  <si>
+    <t>https://www.bar-ravel.de</t>
+  </si>
+  <si>
+    <t>https://tajmahal-regensburg.de</t>
+  </si>
+  <si>
+    <t>https://ricecorn-regensburg.de</t>
+  </si>
+  <si>
+    <t>https://www.peppers-regensburg.de</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4536,12 +4534,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4550,6 +4542,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -4557,6 +4555,17 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="64">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4720,17 +4729,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4849,59 +4847,59 @@
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{CFA5AF43-D759-BF47-A92B-03D5569460AD}" name="Gericht_ID" dataDxfId="45"/>
     <tableColumn id="2" xr3:uid="{CA124AC5-0B98-0D48-B262-D3055FC1D666}" name="Kategorie" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{8AFD1882-172D-9147-8C07-41B158190DA8}" name="Name" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{FCCDA6D9-059C-BA49-BCEB-8DCE30979128}" name="Preis" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{B87CBEA8-0855-D048-B466-05B1A4BA8431}" name="Essverhalten" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{15116D70-7FB7-7B41-9E2D-57E36F08539B}" name="Besonderheit" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{6149EE81-7057-D34A-9583-8D862C7228E3}" name="Allergene" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{84779147-51E7-DE4B-B3B9-99F094548C15}" name="Gang" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{6B937401-4F11-B44D-BDD9-8084A3AEC23F}" name="Beschreibung" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{C5B87709-C104-334F-B54D-D9AE69ADED8C}" name="Bild" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{EEF2CE40-FEF7-6D41-BF14-43F7949A9AEB}" name="Zutaten" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{2683113E-2638-4CC2-86C8-A50DAEEE335F}" name="Unterkategorie" dataDxfId="34"/>
-    <tableColumn id="12" xr3:uid="{484E0797-2CF8-4A6F-98D0-B629421F46E3}" name="FK_Restaurant" dataDxfId="33"/>
-    <tableColumn id="14" xr3:uid="{8D6B2EB7-EAE8-B041-A0AF-D6F15D785238}" name="Restaurant_Name" dataDxfId="32"/>
-    <tableColumn id="15" xr3:uid="{83CF3AAD-959E-7740-8181-654C6F2BA0F6}" name="Restaurant_Link" dataDxfId="31"/>
+    <tableColumn id="13" xr3:uid="{8AFD1882-172D-9147-8C07-41B158190DA8}" name="Name" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{FCCDA6D9-059C-BA49-BCEB-8DCE30979128}" name="Preis" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{B87CBEA8-0855-D048-B466-05B1A4BA8431}" name="Essverhalten" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{15116D70-7FB7-7B41-9E2D-57E36F08539B}" name="Besonderheit" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{6149EE81-7057-D34A-9583-8D862C7228E3}" name="Allergene" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{84779147-51E7-DE4B-B3B9-99F094548C15}" name="Gang" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{6B937401-4F11-B44D-BDD9-8084A3AEC23F}" name="Beschreibung" dataDxfId="40"/>
+    <tableColumn id="10" xr3:uid="{C5B87709-C104-334F-B54D-D9AE69ADED8C}" name="Bild" dataDxfId="39"/>
+    <tableColumn id="11" xr3:uid="{EEF2CE40-FEF7-6D41-BF14-43F7949A9AEB}" name="Zutaten" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{2683113E-2638-4CC2-86C8-A50DAEEE335F}" name="Unterkategorie" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{484E0797-2CF8-4A6F-98D0-B629421F46E3}" name="FK_Restaurant" dataDxfId="36"/>
+    <tableColumn id="14" xr3:uid="{8D6B2EB7-EAE8-B041-A0AF-D6F15D785238}" name="Restaurant_Name" dataDxfId="35"/>
+    <tableColumn id="15" xr3:uid="{83CF3AAD-959E-7740-8181-654C6F2BA0F6}" name="Restaurant_Link" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9B6555A2-C786-7B40-A974-B41D15183573}" name="Tabelle57" displayName="Tabelle57" ref="A1:D14" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9B6555A2-C786-7B40-A974-B41D15183573}" name="Tabelle57" displayName="Tabelle57" ref="A1:D14" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:D14" xr:uid="{B0AE1103-1826-F645-B10B-83B5258131B7}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{274AA7BB-D327-9F4B-98F2-A1EDC7D7A378}" name="Kategorie_ID" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{5DF70DE5-ECFE-514A-AAE4-0AD449EE91F9}" name="Kategorie" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{A66ACFD1-1291-8D48-8033-43AA0CD9395B}" name="Beschreibung" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{BD6C68A9-E579-3348-8F25-A2A208F21A06}" name="Unterkategorie" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{274AA7BB-D327-9F4B-98F2-A1EDC7D7A378}" name="Kategorie_ID" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{5DF70DE5-ECFE-514A-AAE4-0AD449EE91F9}" name="Kategorie" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{A66ACFD1-1291-8D48-8033-43AA0CD9395B}" name="Beschreibung" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{BD6C68A9-E579-3348-8F25-A2A208F21A06}" name="Unterkategorie" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B0AE1103-1826-F645-B10B-83B5258131B7}" name="Tabelle5" displayName="Tabelle5" ref="A1:E217" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B0AE1103-1826-F645-B10B-83B5258131B7}" name="Tabelle5" displayName="Tabelle5" ref="A1:E217" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:E217" xr:uid="{B0AE1103-1826-F645-B10B-83B5258131B7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{769D3B1F-BDD9-9842-8D20-AF6022CE7F40}" name="Zutaten_ID" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{A2F4A89D-E730-394F-B34D-6DEF77C752E3}" name="Zutaten" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{F890CD84-0F88-4F29-BFBF-53E589CE76D2}" name="Unterkategorie" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{49E9EC0A-978D-EF48-B509-9FD05461693B}" name="Kategorie" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{1EE7BF82-ED67-44D0-A28A-F17C77AA8472}" name="Kategorie_ID" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{769D3B1F-BDD9-9842-8D20-AF6022CE7F40}" name="Zutaten_ID" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{A2F4A89D-E730-394F-B34D-6DEF77C752E3}" name="Zutaten" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{F890CD84-0F88-4F29-BFBF-53E589CE76D2}" name="Unterkategorie" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{49E9EC0A-978D-EF48-B509-9FD05461693B}" name="Kategorie" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{1EE7BF82-ED67-44D0-A28A-F17C77AA8472}" name="Kategorie_ID" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{54FCED7F-F300-4FB3-8E8C-4AAD1A63EB5B}" name="Tabelle9" displayName="Tabelle9" ref="A1:D23" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{54FCED7F-F300-4FB3-8E8C-4AAD1A63EB5B}" name="Tabelle9" displayName="Tabelle9" ref="A1:D23" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:D23" xr:uid="{54FCED7F-F300-4FB3-8E8C-4AAD1A63EB5B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A5873EA3-6D9A-4D1B-B7D8-589787195B0D}" name="Sub_Kat_ID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{9B33A4C7-7297-44CA-8815-30AB2F0678F0}" name="Kategorie_ID" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{DF3BC3CC-16BD-4FCB-AF58-FD44FBA1EEF1}" name="Bezeichnung" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{8F1814C6-071D-4E31-8C3A-F3FC0F65C978}" name="Essverhalten" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{A5873EA3-6D9A-4D1B-B7D8-589787195B0D}" name="Sub_Kat_ID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{9B33A4C7-7297-44CA-8815-30AB2F0678F0}" name="Kategorie_ID" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{DF3BC3CC-16BD-4FCB-AF58-FD44FBA1EEF1}" name="Bezeichnung" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{8F1814C6-071D-4E31-8C3A-F3FC0F65C978}" name="Essverhalten" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4919,37 +4917,37 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12FC1B5A-ABE0-4C4C-9FD4-80616E6F351F}" name="Tabelle2" displayName="Tabelle2" ref="A1:B49" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12FC1B5A-ABE0-4C4C-9FD4-80616E6F351F}" name="Tabelle2" displayName="Tabelle2" ref="A1:B49" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:B49" xr:uid="{12FC1B5A-ABE0-4C4C-9FD4-80616E6F351F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1B05578D-D145-D443-8272-562F4C35C645}" name="Besonderheit_ID" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{1622C5D1-F252-8843-9241-19B64BBA2EE8}" name="Besonderheit" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{1B05578D-D145-D443-8272-562F4C35C645}" name="Besonderheit_ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{1622C5D1-F252-8843-9241-19B64BBA2EE8}" name="Besonderheit" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8EE87F00-AE3F-4A3F-8E64-0260D4DB755C}" name="Tabelle7" displayName="Tabelle7" ref="A1:E53" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8EE87F00-AE3F-4A3F-8E64-0260D4DB755C}" name="Tabelle7" displayName="Tabelle7" ref="A1:E53" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9">
   <autoFilter ref="A1:E53" xr:uid="{8EE87F00-AE3F-4A3F-8E64-0260D4DB755C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6742F88C-9689-41AE-9A53-AFB6438DE339}" name="Getränke_ID"/>
     <tableColumn id="2" xr3:uid="{E76C5E68-281C-407C-832A-6FACF25B9428}" name="Name"/>
     <tableColumn id="3" xr3:uid="{6C23F042-7AB4-493E-97FE-B63DCF021DEE}" name="Preis"/>
     <tableColumn id="4" xr3:uid="{DC323BA2-A184-43F7-8E23-95436D27019A}" name="Kategorie"/>
-    <tableColumn id="5" xr3:uid="{030C6CB6-4739-40DC-B032-37FA4B38809C}" name="Bild" dataDxfId="5" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{030C6CB6-4739-40DC-B032-37FA4B38809C}" name="Bild" dataDxfId="8" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6F512E60-FBCC-9F46-897C-F96C5CA98126}" name="Tabelle25" displayName="Tabelle25" ref="A1:C24" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6F512E60-FBCC-9F46-897C-F96C5CA98126}" name="Tabelle25" displayName="Tabelle25" ref="A1:C24" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:C24" xr:uid="{12FC1B5A-ABE0-4C4C-9FD4-80616E6F351F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7804CBBA-0C9B-6C4C-99A5-4F9E7407D6F2}" name="Allergene_ID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{FB2962C8-7927-4142-B1D8-E73A2607BCC5}" name="Allergen" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{6E2769E1-EBB0-4DA9-A89F-65510E4F1CF4}" name="Beschreibung" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7804CBBA-0C9B-6C4C-99A5-4F9E7407D6F2}" name="Allergene_ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{FB2962C8-7927-4142-B1D8-E73A2607BCC5}" name="Allergen" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{6E2769E1-EBB0-4DA9-A89F-65510E4F1CF4}" name="Beschreibung" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5258,26 +5256,26 @@
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="19.36328125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="20.08984375" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" customWidth="1"/>
-    <col min="12" max="12" width="18.36328125" customWidth="1"/>
-    <col min="13" max="13" width="15.08984375" customWidth="1"/>
-    <col min="14" max="14" width="17.08984375" customWidth="1"/>
-    <col min="15" max="15" width="9.08984375" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" customWidth="1"/>
+    <col min="14" max="14" width="17.1640625" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" customWidth="1"/>
+    <col min="18" max="18" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28" customHeight="1">
+    <row r="1" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5322,7 +5320,7 @@
       </c>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="101.5">
+    <row r="2" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5367,7 +5365,7 @@
       </c>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="87">
+    <row r="3" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5412,7 +5410,7 @@
       </c>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="159.5">
+    <row r="4" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5457,7 +5455,7 @@
       </c>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="145">
+    <row r="5" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5502,7 +5500,7 @@
       </c>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="58">
+    <row r="6" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5547,7 +5545,7 @@
       </c>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="58">
+    <row r="7" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5592,7 +5590,7 @@
       </c>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="284" customHeight="1">
+    <row r="8" spans="1:15" ht="284" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5637,7 +5635,7 @@
       </c>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="275.5">
+    <row r="9" spans="1:15" ht="288" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5682,7 +5680,7 @@
       </c>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="145">
+    <row r="10" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5727,7 +5725,7 @@
       </c>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="290">
+    <row r="11" spans="1:15" ht="320" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5772,7 +5770,7 @@
       </c>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="84.75" customHeight="1">
+    <row r="12" spans="1:15" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5817,7 +5815,7 @@
       </c>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="130.5">
+    <row r="13" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -5862,7 +5860,7 @@
       </c>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="116">
+    <row r="14" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -5907,7 +5905,7 @@
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="72.5">
+    <row r="15" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5952,7 +5950,7 @@
       </c>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="188.5">
+    <row r="16" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -5997,7 +5995,7 @@
       </c>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" ht="72.5">
+    <row r="17" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -6042,7 +6040,7 @@
       </c>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" ht="72.5">
+    <row r="18" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -6087,7 +6085,7 @@
       </c>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" ht="174">
+    <row r="19" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -6132,7 +6130,7 @@
       </c>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" ht="130.5">
+    <row r="20" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -6177,7 +6175,7 @@
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="116">
+    <row r="21" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -6222,7 +6220,7 @@
       </c>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="43.5">
+    <row r="22" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -6267,7 +6265,7 @@
       </c>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="116">
+    <row r="23" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -6312,7 +6310,7 @@
       </c>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="116">
+    <row r="24" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -6357,7 +6355,7 @@
       </c>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="145">
+    <row r="25" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -6455,16 +6453,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AE945D-A4BC-40F9-9C14-6D890D7EBEAD}">
   <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView zoomScale="223" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="40.81640625" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1389</v>
       </c>
@@ -6472,7 +6470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>1390</v>
       </c>
@@ -6480,26 +6478,26 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="43.5">
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="43.5">
+    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
     </row>
   </sheetData>
@@ -6515,12 +6513,12 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>151</v>
       </c>
@@ -6546,27 +6544,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB17E25-B77B-4700-B7C6-1DB9B3E38A2C}">
   <dimension ref="A1:O150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="O149" sqref="O149"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="143" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="2"/>
+    <col min="1" max="1" width="11.5" style="2"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="23"/>
-    <col min="5" max="5" width="15.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.08984375" style="2" customWidth="1"/>
-    <col min="7" max="8" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56.08984375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" style="2"/>
-    <col min="11" max="12" width="44.81640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.453125" style="25" customWidth="1"/>
-    <col min="15" max="15" width="20.36328125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="27"/>
+    <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="2"/>
+    <col min="11" max="12" width="44.83203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.5" style="23" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="38.25" customHeight="1">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>150</v>
       </c>
@@ -6613,7 +6611,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="91.5" customHeight="1">
+    <row r="2" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -6623,7 +6621,7 @@
       <c r="C2" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="26">
         <v>13.8</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -6656,11 +6654,11 @@
       <c r="N2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="91.5" customHeight="1">
+    <row r="3" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -6670,7 +6668,7 @@
       <c r="C3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="26">
         <v>15.8</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -6703,11 +6701,11 @@
       <c r="N3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="91.5" customHeight="1">
+    <row r="4" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -6717,7 +6715,7 @@
       <c r="C4" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="26">
         <v>17.8</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -6750,11 +6748,11 @@
       <c r="N4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="91.5" customHeight="1">
+    <row r="5" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -6764,7 +6762,7 @@
       <c r="C5" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="26">
         <v>16.8</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -6797,11 +6795,11 @@
       <c r="N5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="91.5" customHeight="1">
+    <row r="6" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -6811,7 +6809,7 @@
       <c r="C6" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="26">
         <v>12.8</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -6844,11 +6842,11 @@
       <c r="N6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="91.5" customHeight="1">
+    <row r="7" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -6858,7 +6856,7 @@
       <c r="C7" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="26">
         <v>13.8</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -6891,11 +6889,11 @@
       <c r="N7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="91.5" customHeight="1">
+    <row r="8" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -6905,7 +6903,7 @@
       <c r="C8" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="26">
         <v>22.8</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -6938,11 +6936,11 @@
       <c r="N8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="O8" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="91.5" customHeight="1">
+    <row r="9" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -6952,7 +6950,7 @@
       <c r="C9" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="26">
         <v>11.8</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -6985,11 +6983,11 @@
       <c r="N9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="O9" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="91.5" customHeight="1">
+    <row r="10" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -6999,7 +6997,7 @@
       <c r="C10" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="26">
         <v>11.8</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -7032,11 +7030,11 @@
       <c r="N10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="O10" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="91.5" customHeight="1">
+    <row r="11" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -7046,7 +7044,7 @@
       <c r="C11" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="26">
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -7079,11 +7077,11 @@
       <c r="N11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O11" s="24" t="s">
+      <c r="O11" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="91.5" customHeight="1">
+    <row r="12" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -7093,7 +7091,7 @@
       <c r="C12" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="26">
         <v>10.9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -7128,7 +7126,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="91.5" customHeight="1">
+    <row r="13" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -7138,7 +7136,7 @@
       <c r="C13" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="26">
         <v>12.9</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -7175,7 +7173,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="91.5" customHeight="1">
+    <row r="14" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -7185,7 +7183,7 @@
       <c r="C14" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="26">
         <v>12.9</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -7222,7 +7220,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="91.5" customHeight="1">
+    <row r="15" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -7232,7 +7230,7 @@
       <c r="C15" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="26">
         <v>11.5</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -7267,7 +7265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="91.5" customHeight="1">
+    <row r="16" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -7277,7 +7275,7 @@
       <c r="C16" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="26">
         <v>13.7</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -7314,7 +7312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="91.5" customHeight="1">
+    <row r="17" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -7324,7 +7322,7 @@
       <c r="C17" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="26">
         <v>13.9</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -7337,11 +7335,11 @@
       <c r="H17" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="24" t="s">
         <v>264</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>1416</v>
+        <v>1405</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>265</v>
@@ -7359,7 +7357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="91.5" customHeight="1">
+    <row r="18" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -7369,7 +7367,7 @@
       <c r="C18" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="26">
         <v>10.3</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -7404,7 +7402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="91.5" customHeight="1">
+    <row r="19" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -7414,7 +7412,7 @@
       <c r="C19" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="26">
         <v>9.75</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -7451,7 +7449,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="91.5" customHeight="1">
+    <row r="20" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -7461,7 +7459,7 @@
       <c r="C20" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="26">
         <v>14.5</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -7498,7 +7496,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="91.5" customHeight="1">
+    <row r="21" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -7508,7 +7506,7 @@
       <c r="C21" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="26">
         <v>12.5</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -7545,7 +7543,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="91.5" customHeight="1">
+    <row r="22" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -7555,7 +7553,7 @@
       <c r="C22" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="26">
         <v>13.75</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -7592,7 +7590,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="91.5" customHeight="1">
+    <row r="23" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -7602,7 +7600,7 @@
       <c r="C23" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="26">
         <v>13.75</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -7639,7 +7637,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="91.5" customHeight="1">
+    <row r="24" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -7649,7 +7647,7 @@
       <c r="C24" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="26">
         <v>10.25</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -7686,7 +7684,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="91.5" customHeight="1">
+    <row r="25" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -7696,7 +7694,7 @@
       <c r="C25" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="26">
         <v>15.9</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -7733,7 +7731,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="91.5" customHeight="1">
+    <row r="26" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -7743,7 +7741,7 @@
       <c r="C26" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="26">
         <v>16.899999999999999</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -7780,7 +7778,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="91.5" customHeight="1">
+    <row r="27" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -7790,7 +7788,7 @@
       <c r="C27" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="26">
         <v>13.5</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -7825,7 +7823,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="91.5" customHeight="1">
+    <row r="28" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -7835,7 +7833,7 @@
       <c r="C28" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="26">
         <v>17.899999999999999</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -7872,7 +7870,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="91.5" customHeight="1">
+    <row r="29" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -7882,7 +7880,7 @@
       <c r="C29" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="26">
         <v>9.6999999999999993</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -7919,7 +7917,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="91.5" customHeight="1">
+    <row r="30" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -7929,7 +7927,7 @@
       <c r="C30" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="26">
         <v>10.199999999999999</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -7966,7 +7964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="91.5" customHeight="1">
+    <row r="31" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -7976,7 +7974,7 @@
       <c r="C31" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="26">
         <v>11.9</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -8013,7 +8011,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="91.5" customHeight="1">
+    <row r="32" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -8023,7 +8021,7 @@
       <c r="C32" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="26">
         <v>11.2</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -8060,7 +8058,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="91.5" customHeight="1">
+    <row r="33" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -8070,7 +8068,7 @@
       <c r="C33" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="26">
         <v>7.9</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -8107,7 +8105,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="91.5" customHeight="1">
+    <row r="34" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -8117,7 +8115,7 @@
       <c r="C34" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="26">
         <v>18.75</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -8151,10 +8149,10 @@
         <v>82</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="91.5" customHeight="1">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -8164,7 +8162,7 @@
       <c r="C35" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="26">
         <v>19.5</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -8198,10 +8196,10 @@
         <v>82</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="91.5" customHeight="1">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -8211,7 +8209,7 @@
       <c r="C36" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="26">
         <v>19.5</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -8245,10 +8243,10 @@
         <v>82</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="91.5" customHeight="1">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -8258,7 +8256,7 @@
       <c r="C37" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="26">
         <v>12.9</v>
       </c>
       <c r="E37" s="4" t="s">
@@ -8292,10 +8290,10 @@
         <v>82</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="91.5" customHeight="1">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -8305,7 +8303,7 @@
       <c r="C38" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="26">
         <v>14.5</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -8339,10 +8337,10 @@
         <v>82</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="91.5" customHeight="1">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -8352,7 +8350,7 @@
       <c r="C39" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="26">
         <v>8.6999999999999993</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -8384,10 +8382,10 @@
         <v>113</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="91.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -8397,7 +8395,7 @@
       <c r="C40" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="26">
         <v>7.4</v>
       </c>
       <c r="E40" s="4" t="s">
@@ -8431,10 +8429,10 @@
         <v>113</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="91.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -8444,7 +8442,7 @@
       <c r="C41" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="26">
         <v>14.5</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -8478,10 +8476,10 @@
         <v>113</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="91.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -8491,7 +8489,7 @@
       <c r="C42" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="26">
         <v>10.5</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -8525,10 +8523,10 @@
         <v>113</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="91.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -8538,7 +8536,7 @@
       <c r="C43" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="26">
         <v>9.8000000000000007</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -8572,10 +8570,10 @@
         <v>108</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="91.5" customHeight="1">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -8585,7 +8583,7 @@
       <c r="C44" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="26">
         <v>10.5</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -8619,10 +8617,10 @@
         <v>108</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="91.5" customHeight="1">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -8632,7 +8630,7 @@
       <c r="C45" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="26">
         <v>9.8000000000000007</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -8666,10 +8664,10 @@
         <v>108</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="101.5">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -8679,7 +8677,7 @@
       <c r="C46" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="26">
         <v>13.5</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -8713,10 +8711,10 @@
         <v>108</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="130.5">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -8726,7 +8724,7 @@
       <c r="C47" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="26">
         <v>13.5</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -8760,10 +8758,10 @@
         <v>108</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="174">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -8773,7 +8771,7 @@
       <c r="C48" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="26">
         <v>9.8000000000000007</v>
       </c>
       <c r="E48" s="4" t="s">
@@ -8807,10 +8805,10 @@
         <v>108</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="101.5">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -8820,7 +8818,7 @@
       <c r="C49" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="26">
         <v>10.199999999999999</v>
       </c>
       <c r="E49" s="4" t="s">
@@ -8854,10 +8852,10 @@
         <v>108</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="362.5">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="365" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -8867,7 +8865,7 @@
       <c r="C50" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="26">
         <v>10.8</v>
       </c>
       <c r="E50" s="4" t="s">
@@ -8901,10 +8899,10 @@
         <v>108</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="130.5">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -8914,7 +8912,7 @@
       <c r="C51" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="26">
         <v>12.8</v>
       </c>
       <c r="E51" s="4" t="s">
@@ -8948,10 +8946,10 @@
         <v>108</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="217.5">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="224" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -8961,7 +8959,7 @@
       <c r="C52" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="26">
         <v>12.8</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -8995,10 +8993,10 @@
         <v>108</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="116">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -9008,7 +9006,7 @@
       <c r="C53" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="26">
         <v>10.8</v>
       </c>
       <c r="E53" s="4" t="s">
@@ -9042,10 +9040,10 @@
         <v>108</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="116">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -9055,7 +9053,7 @@
       <c r="C54" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="26">
         <v>12.8</v>
       </c>
       <c r="E54" s="4" t="s">
@@ -9089,10 +9087,10 @@
         <v>108</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="145">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -9102,7 +9100,7 @@
       <c r="C55" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="26">
         <v>10.5</v>
       </c>
       <c r="E55" s="4" t="s">
@@ -9117,11 +9115,11 @@
       <c r="H55" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I55" s="26" t="s">
+      <c r="I55" s="24" t="s">
         <v>493</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>1417</v>
+        <v>1406</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>494</v>
@@ -9136,10 +9134,10 @@
         <v>108</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="145">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -9149,7 +9147,7 @@
       <c r="C56" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="26">
         <v>12.5</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -9183,10 +9181,10 @@
         <v>108</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="377">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="395" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -9196,7 +9194,7 @@
       <c r="C57" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="26">
         <v>12.5</v>
       </c>
       <c r="E57" s="4" t="s">
@@ -9230,10 +9228,10 @@
         <v>108</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="203">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="224" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -9243,7 +9241,7 @@
       <c r="C58" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="26">
         <v>13.5</v>
       </c>
       <c r="E58" s="4" t="s">
@@ -9277,10 +9275,10 @@
         <v>103</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="116">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -9290,7 +9288,7 @@
       <c r="C59" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="26">
         <v>13.5</v>
       </c>
       <c r="E59" s="4" t="s">
@@ -9322,10 +9320,10 @@
         <v>103</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="101.5">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -9335,7 +9333,7 @@
       <c r="C60" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D60" s="26">
         <v>13.9</v>
       </c>
       <c r="E60" s="4" t="s">
@@ -9367,10 +9365,10 @@
         <v>103</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="130.5">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -9380,7 +9378,7 @@
       <c r="C61" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="D61" s="22">
+      <c r="D61" s="26">
         <v>13.9</v>
       </c>
       <c r="E61" s="4" t="s">
@@ -9414,10 +9412,10 @@
         <v>103</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="174">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -9427,7 +9425,7 @@
       <c r="C62" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D62" s="26">
         <v>14.9</v>
       </c>
       <c r="E62" s="4" t="s">
@@ -9461,10 +9459,10 @@
         <v>103</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="348">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="365" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -9474,7 +9472,7 @@
       <c r="C63" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D63" s="26">
         <v>16.5</v>
       </c>
       <c r="E63" s="4" t="s">
@@ -9506,10 +9504,10 @@
         <v>103</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="145">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -9519,7 +9517,7 @@
       <c r="C64" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D64" s="26">
         <v>8.9</v>
       </c>
       <c r="E64" s="4" t="s">
@@ -9534,7 +9532,7 @@
       <c r="H64" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I64" s="26" t="s">
+      <c r="I64" s="24" t="s">
         <v>542</v>
       </c>
       <c r="J64" s="6" t="s">
@@ -9553,10 +9551,10 @@
         <v>98</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="409.5">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -9566,7 +9564,7 @@
       <c r="C65" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="26">
         <v>9.4</v>
       </c>
       <c r="E65" s="4" t="s">
@@ -9581,11 +9579,11 @@
       <c r="H65" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I65" s="26" t="s">
+      <c r="I65" s="24" t="s">
         <v>548</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>1418</v>
+        <v>1407</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>549</v>
@@ -9600,10 +9598,10 @@
         <v>98</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="101.5">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -9613,7 +9611,7 @@
       <c r="C66" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="D66" s="22">
+      <c r="D66" s="26">
         <v>13.4</v>
       </c>
       <c r="E66" s="4" t="s">
@@ -9628,11 +9626,11 @@
       <c r="H66" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I66" s="26" t="s">
+      <c r="I66" s="24" t="s">
         <v>554</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>1419</v>
+        <v>1408</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>555</v>
@@ -9647,10 +9645,10 @@
         <v>98</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="145">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -9660,7 +9658,7 @@
       <c r="C67" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D67" s="26">
         <v>9.9</v>
       </c>
       <c r="E67" s="4" t="s">
@@ -9675,11 +9673,11 @@
       <c r="H67" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I67" s="26" t="s">
+      <c r="I67" s="24" t="s">
         <v>559</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>1420</v>
+        <v>1409</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>560</v>
@@ -9694,10 +9692,10 @@
         <v>98</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="145">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -9707,7 +9705,7 @@
       <c r="C68" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D68" s="26">
         <v>9.9</v>
       </c>
       <c r="E68" s="4" t="s">
@@ -9722,11 +9720,11 @@
       <c r="H68" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I68" s="26" t="s">
+      <c r="I68" s="24" t="s">
         <v>564</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>1427</v>
+        <v>1416</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>565</v>
@@ -9741,10 +9739,10 @@
         <v>98</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="159.5">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -9754,7 +9752,7 @@
       <c r="C69" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="26">
         <v>13.4</v>
       </c>
       <c r="E69" s="4" t="s">
@@ -9769,11 +9767,11 @@
       <c r="H69" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I69" s="26" t="s">
+      <c r="I69" s="24" t="s">
         <v>569</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>1426</v>
+        <v>1415</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>570</v>
@@ -9788,10 +9786,10 @@
         <v>98</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="145">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -9801,7 +9799,7 @@
       <c r="C70" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="D70" s="22">
+      <c r="D70" s="26">
         <v>9.4</v>
       </c>
       <c r="E70" s="4" t="s">
@@ -9835,10 +9833,10 @@
         <v>98</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="174">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -9848,7 +9846,7 @@
       <c r="C71" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="26">
         <v>9.9</v>
       </c>
       <c r="E71" s="4" t="s">
@@ -9863,11 +9861,11 @@
       <c r="H71" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I71" s="26" t="s">
+      <c r="I71" s="24" t="s">
         <v>581</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>1425</v>
+        <v>1414</v>
       </c>
       <c r="K71" s="4" t="s">
         <v>582</v>
@@ -9882,10 +9880,10 @@
         <v>98</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="130.5">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -9895,7 +9893,7 @@
       <c r="C72" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="26">
         <v>9.4</v>
       </c>
       <c r="E72" s="4" t="s">
@@ -9910,11 +9908,11 @@
       <c r="H72" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I72" s="26" t="s">
+      <c r="I72" s="24" t="s">
         <v>1398</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>1424</v>
+        <v>1413</v>
       </c>
       <c r="K72" s="4" t="s">
         <v>587</v>
@@ -9929,10 +9927,10 @@
         <v>98</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="101.5">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -9942,7 +9940,7 @@
       <c r="C73" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="D73" s="22">
+      <c r="D73" s="26">
         <v>9.4</v>
       </c>
       <c r="E73" s="4" t="s">
@@ -9976,10 +9974,10 @@
         <v>98</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="130.5">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -9989,7 +9987,7 @@
       <c r="C74" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="D74" s="22">
+      <c r="D74" s="26">
         <v>13.5</v>
       </c>
       <c r="E74" s="4" t="s">
@@ -10023,10 +10021,10 @@
         <v>113</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="159.5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -10036,7 +10034,7 @@
       <c r="C75" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="D75" s="22">
+      <c r="D75" s="26">
         <v>13.5</v>
       </c>
       <c r="E75" s="4" t="s">
@@ -10070,10 +10068,10 @@
         <v>113</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="188.5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -10083,7 +10081,7 @@
       <c r="C76" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="D76" s="22">
+      <c r="D76" s="26">
         <v>14.8</v>
       </c>
       <c r="E76" s="4" t="s">
@@ -10098,11 +10096,11 @@
       <c r="H76" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I76" s="26" t="s">
+      <c r="I76" s="24" t="s">
         <v>611</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>1423</v>
+        <v>1412</v>
       </c>
       <c r="K76" s="4" t="s">
         <v>612</v>
@@ -10117,10 +10115,10 @@
         <v>113</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="319">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="320" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -10130,7 +10128,7 @@
       <c r="C77" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="D77" s="22">
+      <c r="D77" s="26">
         <v>15.5</v>
       </c>
       <c r="E77" s="4" t="s">
@@ -10164,10 +10162,10 @@
         <v>113</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="159.5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -10177,7 +10175,7 @@
       <c r="C78" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D78" s="22">
+      <c r="D78" s="26">
         <v>11.9</v>
       </c>
       <c r="E78" s="4" t="s">
@@ -10192,11 +10190,11 @@
       <c r="H78" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I78" s="26" t="s">
+      <c r="I78" s="24" t="s">
         <v>621</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>1422</v>
+        <v>1411</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>622</v>
@@ -10211,10 +10209,10 @@
         <v>93</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="130.5">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -10224,7 +10222,7 @@
       <c r="C79" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D79" s="26">
         <v>12.9</v>
       </c>
       <c r="E79" s="4" t="s">
@@ -10258,10 +10256,10 @@
         <v>93</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="116">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -10271,7 +10269,7 @@
       <c r="C80" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="D80" s="22">
+      <c r="D80" s="26">
         <v>14.9</v>
       </c>
       <c r="E80" s="4" t="s">
@@ -10305,10 +10303,10 @@
         <v>93</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="232">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -10318,7 +10316,7 @@
       <c r="C81" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="D81" s="22">
+      <c r="D81" s="26">
         <v>13.9</v>
       </c>
       <c r="E81" s="4" t="s">
@@ -10352,10 +10350,10 @@
         <v>93</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="87">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -10365,7 +10363,7 @@
       <c r="C82" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="D82" s="22">
+      <c r="D82" s="26">
         <v>14.9</v>
       </c>
       <c r="E82" s="4" t="s">
@@ -10397,10 +10395,10 @@
         <v>93</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="203">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -10410,7 +10408,7 @@
       <c r="C83" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="D83" s="22">
+      <c r="D83" s="26">
         <v>10.9</v>
       </c>
       <c r="E83" s="4" t="s">
@@ -10444,10 +10442,10 @@
         <v>93</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="116">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -10457,7 +10455,7 @@
       <c r="C84" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="D84" s="22">
+      <c r="D84" s="26">
         <v>9.9</v>
       </c>
       <c r="E84" s="4" t="s">
@@ -10491,10 +10489,10 @@
         <v>93</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="72.5">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -10504,7 +10502,7 @@
       <c r="C85" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="D85" s="22">
+      <c r="D85" s="26">
         <v>13.8</v>
       </c>
       <c r="E85" s="4" t="s">
@@ -10541,7 +10539,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="87">
+    <row r="86" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -10551,7 +10549,7 @@
       <c r="C86" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="D86" s="22">
+      <c r="D86" s="26">
         <v>13.8</v>
       </c>
       <c r="E86" s="4" t="s">
@@ -10585,10 +10583,10 @@
         <v>76</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="174">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -10598,7 +10596,7 @@
       <c r="C87" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="D87" s="22">
+      <c r="D87" s="26">
         <v>13.5</v>
       </c>
       <c r="E87" s="4" t="s">
@@ -10632,10 +10630,10 @@
         <v>76</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="174">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -10645,7 +10643,7 @@
       <c r="C88" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="D88" s="22">
+      <c r="D88" s="26">
         <v>12.5</v>
       </c>
       <c r="E88" s="4" t="s">
@@ -10679,10 +10677,10 @@
         <v>76</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="348">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="365" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -10692,7 +10690,7 @@
       <c r="C89" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="D89" s="22">
+      <c r="D89" s="26">
         <v>13.5</v>
       </c>
       <c r="E89" s="4" t="s">
@@ -10726,10 +10724,10 @@
         <v>76</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="101.5">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -10739,7 +10737,7 @@
       <c r="C90" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="D90" s="22">
+      <c r="D90" s="26">
         <v>13.8</v>
       </c>
       <c r="E90" s="4" t="s">
@@ -10773,10 +10771,10 @@
         <v>76</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="116">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -10786,7 +10784,7 @@
       <c r="C91" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="D91" s="22">
+      <c r="D91" s="26">
         <v>13.8</v>
       </c>
       <c r="E91" s="4" t="s">
@@ -10820,10 +10818,10 @@
         <v>76</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="116">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -10833,7 +10831,7 @@
       <c r="C92" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="D92" s="22">
+      <c r="D92" s="26">
         <v>12.5</v>
       </c>
       <c r="E92" s="4" t="s">
@@ -10867,10 +10865,10 @@
         <v>76</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="409.5">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -10880,7 +10878,7 @@
       <c r="C93" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="D93" s="22">
+      <c r="D93" s="26">
         <v>13.8</v>
       </c>
       <c r="E93" s="4" t="s">
@@ -10912,10 +10910,10 @@
         <v>76</v>
       </c>
       <c r="O93" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" ht="145">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -10925,7 +10923,7 @@
       <c r="C94" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="D94" s="22">
+      <c r="D94" s="26">
         <v>6.8</v>
       </c>
       <c r="E94" s="4" t="s">
@@ -10957,10 +10955,10 @@
         <v>88</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="174">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -10970,7 +10968,7 @@
       <c r="C95" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D95" s="22">
+      <c r="D95" s="26">
         <v>7.9</v>
       </c>
       <c r="E95" s="4" t="s">
@@ -11004,10 +11002,10 @@
         <v>88</v>
       </c>
       <c r="O95" s="4" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="188.5">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -11017,7 +11015,7 @@
       <c r="C96" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="D96" s="22">
+      <c r="D96" s="26">
         <v>7.4</v>
       </c>
       <c r="E96" s="4" t="s">
@@ -11051,10 +11049,10 @@
         <v>88</v>
       </c>
       <c r="O96" s="4" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="130.5">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -11064,7 +11062,7 @@
       <c r="C97" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="D97" s="22">
+      <c r="D97" s="26">
         <v>6.9</v>
       </c>
       <c r="E97" s="4" t="s">
@@ -11098,10 +11096,10 @@
         <v>88</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="116">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -11111,7 +11109,7 @@
       <c r="C98" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="D98" s="22">
+      <c r="D98" s="26">
         <v>7.2</v>
       </c>
       <c r="E98" s="4" t="s">
@@ -11143,10 +11141,10 @@
         <v>88</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="116">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -11156,7 +11154,7 @@
       <c r="C99" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="D99" s="22">
+      <c r="D99" s="26">
         <v>8.5</v>
       </c>
       <c r="E99" s="4" t="s">
@@ -11190,10 +11188,10 @@
         <v>88</v>
       </c>
       <c r="O99" s="4" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" ht="391.5">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -11203,7 +11201,7 @@
       <c r="C100" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="D100" s="22">
+      <c r="D100" s="26">
         <v>9.9</v>
       </c>
       <c r="E100" s="4" t="s">
@@ -11237,10 +11235,10 @@
         <v>88</v>
       </c>
       <c r="O100" s="4" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" ht="319">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="320" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -11250,7 +11248,7 @@
       <c r="C101" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="D101" s="22">
+      <c r="D101" s="26">
         <v>8.9</v>
       </c>
       <c r="E101" s="4" t="s">
@@ -11284,10 +11282,10 @@
         <v>88</v>
       </c>
       <c r="O101" s="4" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" ht="130.5">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -11297,7 +11295,7 @@
       <c r="C102" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="D102" s="22">
+      <c r="D102" s="26">
         <v>10.9</v>
       </c>
       <c r="E102" s="4" t="s">
@@ -11329,10 +11327,10 @@
         <v>118</v>
       </c>
       <c r="O102" s="4" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" ht="232">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="224" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -11342,7 +11340,7 @@
       <c r="C103" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="D103" s="22">
+      <c r="D103" s="26">
         <v>10.9</v>
       </c>
       <c r="E103" s="4" t="s">
@@ -11374,10 +11372,10 @@
         <v>118</v>
       </c>
       <c r="O103" s="4" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" ht="188.5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -11387,7 +11385,7 @@
       <c r="C104" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D104" s="22">
+      <c r="D104" s="26">
         <v>12.5</v>
       </c>
       <c r="E104" s="4" t="s">
@@ -11419,10 +11417,10 @@
         <v>118</v>
       </c>
       <c r="O104" s="4" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" ht="116">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -11432,7 +11430,7 @@
       <c r="C105" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="D105" s="22">
+      <c r="D105" s="26">
         <v>18.7</v>
       </c>
       <c r="E105" s="4" t="s">
@@ -11464,10 +11462,10 @@
         <v>118</v>
       </c>
       <c r="O105" s="4" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="145">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -11477,7 +11475,7 @@
       <c r="C106" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="D106" s="22">
+      <c r="D106" s="26">
         <v>14.9</v>
       </c>
       <c r="E106" s="4" t="s">
@@ -11509,10 +11507,10 @@
         <v>118</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" ht="188.5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -11522,7 +11520,7 @@
       <c r="C107" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="D107" s="22">
+      <c r="D107" s="26">
         <v>15.9</v>
       </c>
       <c r="E107" s="4" t="s">
@@ -11554,10 +11552,10 @@
         <v>118</v>
       </c>
       <c r="O107" s="4" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" ht="101.5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -11567,7 +11565,7 @@
       <c r="C108" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="D108" s="22">
+      <c r="D108" s="26">
         <v>14.9</v>
       </c>
       <c r="E108" s="4" t="s">
@@ -11599,10 +11597,10 @@
         <v>118</v>
       </c>
       <c r="O108" s="4" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="174">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -11612,7 +11610,7 @@
       <c r="C109" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="D109" s="22">
+      <c r="D109" s="26">
         <v>18.5</v>
       </c>
       <c r="E109" s="4" t="s">
@@ -11644,10 +11642,10 @@
         <v>118</v>
       </c>
       <c r="O109" s="4" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" ht="159.5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -11657,7 +11655,7 @@
       <c r="C110" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="D110" s="22">
+      <c r="D110" s="26">
         <v>16.399999999999999</v>
       </c>
       <c r="E110" s="4" t="s">
@@ -11689,10 +11687,10 @@
         <v>118</v>
       </c>
       <c r="O110" s="4" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="116">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -11702,7 +11700,7 @@
       <c r="C111" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="D111" s="22">
+      <c r="D111" s="26">
         <v>8.5</v>
       </c>
       <c r="E111" s="4" t="s">
@@ -11734,10 +11732,10 @@
         <v>123</v>
       </c>
       <c r="O111" s="4" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" ht="261">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="288" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -11747,7 +11745,7 @@
       <c r="C112" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="D112" s="22">
+      <c r="D112" s="26">
         <v>7.5</v>
       </c>
       <c r="E112" s="4" t="s">
@@ -11779,10 +11777,10 @@
         <v>123</v>
       </c>
       <c r="O112" s="4" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" ht="145">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -11792,7 +11790,7 @@
       <c r="C113" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="D113" s="22">
+      <c r="D113" s="26">
         <v>7.5</v>
       </c>
       <c r="E113" s="4" t="s">
@@ -11824,10 +11822,10 @@
         <v>123</v>
       </c>
       <c r="O113" s="4" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" ht="159.5">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -11837,7 +11835,7 @@
       <c r="C114" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="D114" s="22">
+      <c r="D114" s="26">
         <v>7.5</v>
       </c>
       <c r="E114" s="4" t="s">
@@ -11869,10 +11867,10 @@
         <v>123</v>
       </c>
       <c r="O114" s="4" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="72.5">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -11882,7 +11880,7 @@
       <c r="C115" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="D115" s="22">
+      <c r="D115" s="26">
         <v>8.5</v>
       </c>
       <c r="E115" s="4" t="s">
@@ -11914,10 +11912,10 @@
         <v>123</v>
       </c>
       <c r="O115" s="4" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" ht="101.5">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -11927,7 +11925,7 @@
       <c r="C116" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="D116" s="22">
+      <c r="D116" s="26">
         <v>8</v>
       </c>
       <c r="E116" s="4" t="s">
@@ -11959,10 +11957,10 @@
         <v>128</v>
       </c>
       <c r="O116" s="4" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" ht="145">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -11972,7 +11970,7 @@
       <c r="C117" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="D117" s="22">
+      <c r="D117" s="26">
         <v>7</v>
       </c>
       <c r="E117" s="4" t="s">
@@ -12004,10 +12002,10 @@
         <v>128</v>
       </c>
       <c r="O117" s="4" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" ht="159.5">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -12017,7 +12015,7 @@
       <c r="C118" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="D118" s="22">
+      <c r="D118" s="26">
         <v>9</v>
       </c>
       <c r="E118" s="4" t="s">
@@ -12049,10 +12047,10 @@
         <v>128</v>
       </c>
       <c r="O118" s="4" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" ht="116">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -12062,7 +12060,7 @@
       <c r="C119" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="D119" s="22">
+      <c r="D119" s="26">
         <v>5</v>
       </c>
       <c r="E119" s="4" t="s">
@@ -12094,10 +12092,10 @@
         <v>128</v>
       </c>
       <c r="O119" s="4" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" ht="333.5">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="350" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -12107,7 +12105,7 @@
       <c r="C120" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="D120" s="22">
+      <c r="D120" s="26">
         <v>8</v>
       </c>
       <c r="E120" s="4" t="s">
@@ -12139,10 +12137,10 @@
         <v>128</v>
       </c>
       <c r="O120" s="4" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" ht="348">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="350" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -12152,7 +12150,7 @@
       <c r="C121" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="D121" s="22">
+      <c r="D121" s="26">
         <v>10</v>
       </c>
       <c r="E121" s="4" t="s">
@@ -12184,10 +12182,10 @@
         <v>128</v>
       </c>
       <c r="O121" s="4" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" ht="217.5">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="240" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -12197,7 +12195,7 @@
       <c r="C122" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="D122" s="22">
+      <c r="D122" s="26">
         <v>4</v>
       </c>
       <c r="E122" s="4" t="s">
@@ -12229,10 +12227,10 @@
         <v>128</v>
       </c>
       <c r="O122" s="4" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" ht="203">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -12242,7 +12240,7 @@
       <c r="C123" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="D123" s="22">
+      <c r="D123" s="26">
         <v>8</v>
       </c>
       <c r="E123" s="4" t="s">
@@ -12274,10 +12272,10 @@
         <v>128</v>
       </c>
       <c r="O123" s="4" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" ht="101.5">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -12287,7 +12285,7 @@
       <c r="C124" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="D124" s="22">
+      <c r="D124" s="26">
         <v>8</v>
       </c>
       <c r="E124" s="4" t="s">
@@ -12319,10 +12317,10 @@
         <v>128</v>
       </c>
       <c r="O124" s="4" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" ht="319">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="335" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -12332,7 +12330,7 @@
       <c r="C125" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="D125" s="22">
+      <c r="D125" s="26">
         <v>8</v>
       </c>
       <c r="E125" s="4" t="s">
@@ -12364,10 +12362,10 @@
         <v>128</v>
       </c>
       <c r="O125" s="4" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" ht="261">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="224" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -12377,7 +12375,7 @@
       <c r="C126" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="D126" s="22">
+      <c r="D126" s="26">
         <v>7</v>
       </c>
       <c r="E126" s="4" t="s">
@@ -12409,10 +12407,10 @@
         <v>128</v>
       </c>
       <c r="O126" s="4" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" ht="130.5">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -12422,7 +12420,7 @@
       <c r="C127" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="D127" s="22">
+      <c r="D127" s="26">
         <v>7</v>
       </c>
       <c r="E127" s="4" t="s">
@@ -12454,10 +12452,10 @@
         <v>128</v>
       </c>
       <c r="O127" s="4" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" ht="409.5">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -12467,7 +12465,7 @@
       <c r="C128" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="D128" s="22">
+      <c r="D128" s="26">
         <v>8</v>
       </c>
       <c r="E128" s="4" t="s">
@@ -12499,10 +12497,10 @@
         <v>128</v>
       </c>
       <c r="O128" s="4" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" ht="101.5">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -12512,7 +12510,7 @@
       <c r="C129" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="D129" s="22">
+      <c r="D129" s="26">
         <v>10.9</v>
       </c>
       <c r="E129" s="4" t="s">
@@ -12544,10 +12542,10 @@
         <v>133</v>
       </c>
       <c r="O129" s="4" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" ht="319">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="335" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -12557,7 +12555,7 @@
       <c r="C130" s="4" t="s">
         <v>921</v>
       </c>
-      <c r="D130" s="22">
+      <c r="D130" s="26">
         <v>10.9</v>
       </c>
       <c r="E130" s="4" t="s">
@@ -12589,10 +12587,10 @@
         <v>133</v>
       </c>
       <c r="O130" s="4" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" ht="87">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -12602,7 +12600,7 @@
       <c r="C131" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="D131" s="22">
+      <c r="D131" s="26">
         <v>11</v>
       </c>
       <c r="E131" s="4" t="s">
@@ -12634,10 +12632,10 @@
         <v>133</v>
       </c>
       <c r="O131" s="4" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" ht="101.5">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -12647,7 +12645,7 @@
       <c r="C132" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="D132" s="22">
+      <c r="D132" s="26">
         <v>10.9</v>
       </c>
       <c r="E132" s="4" t="s">
@@ -12679,10 +12677,10 @@
         <v>133</v>
       </c>
       <c r="O132" s="4" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" ht="159.5">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -12692,7 +12690,7 @@
       <c r="C133" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="D133" s="22">
+      <c r="D133" s="26">
         <v>10.9</v>
       </c>
       <c r="E133" s="4" t="s">
@@ -12705,11 +12703,11 @@
       <c r="H133" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I133" s="26" t="s">
+      <c r="I133" s="24" t="s">
         <v>937</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>1421</v>
+        <v>1410</v>
       </c>
       <c r="K133" s="4" t="s">
         <v>938</v>
@@ -12724,10 +12722,10 @@
         <v>133</v>
       </c>
       <c r="O133" s="4" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" ht="101.5">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -12737,7 +12735,7 @@
       <c r="C134" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="D134" s="22">
+      <c r="D134" s="26">
         <v>10.8</v>
       </c>
       <c r="E134" s="4" t="s">
@@ -12769,10 +12767,10 @@
         <v>133</v>
       </c>
       <c r="O134" s="4" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" ht="101.5">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -12782,7 +12780,7 @@
       <c r="C135" s="4" t="s">
         <v>946</v>
       </c>
-      <c r="D135" s="22">
+      <c r="D135" s="26">
         <v>11.2</v>
       </c>
       <c r="E135" s="4" t="s">
@@ -12814,10 +12812,10 @@
         <v>133</v>
       </c>
       <c r="O135" s="4" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" ht="101.5">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -12827,7 +12825,7 @@
       <c r="C136" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="D136" s="22">
+      <c r="D136" s="26">
         <v>11.6</v>
       </c>
       <c r="E136" s="4" t="s">
@@ -12859,10 +12857,10 @@
         <v>133</v>
       </c>
       <c r="O136" s="4" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" ht="116">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -12872,7 +12870,7 @@
       <c r="C137" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="D137" s="22">
+      <c r="D137" s="26">
         <v>11.5</v>
       </c>
       <c r="E137" s="4" t="s">
@@ -12904,10 +12902,10 @@
         <v>133</v>
       </c>
       <c r="O137" s="4" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" ht="174">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -12917,7 +12915,7 @@
       <c r="C138" s="4" t="s">
         <v>961</v>
       </c>
-      <c r="D138" s="22">
+      <c r="D138" s="26">
         <v>10.9</v>
       </c>
       <c r="E138" s="4" t="s">
@@ -12949,10 +12947,10 @@
         <v>133</v>
       </c>
       <c r="O138" s="4" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" ht="130.5">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -12962,7 +12960,7 @@
       <c r="C139" s="4" t="s">
         <v>967</v>
       </c>
-      <c r="D139" s="22">
+      <c r="D139" s="26">
         <v>14.9</v>
       </c>
       <c r="E139" s="4" t="s">
@@ -12994,10 +12992,10 @@
         <v>133</v>
       </c>
       <c r="O139" s="4" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" ht="217.5">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -13007,7 +13005,7 @@
       <c r="C140" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="D140" s="22">
+      <c r="D140" s="26">
         <v>16.5</v>
       </c>
       <c r="E140" s="4" t="s">
@@ -13039,10 +13037,10 @@
         <v>133</v>
       </c>
       <c r="O140" s="4" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" ht="145">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -13052,7 +13050,7 @@
       <c r="C141" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="D141" s="22">
+      <c r="D141" s="26">
         <v>15.9</v>
       </c>
       <c r="E141" s="4" t="s">
@@ -13084,10 +13082,10 @@
         <v>133</v>
       </c>
       <c r="O141" s="4" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" ht="188.5">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -13097,7 +13095,7 @@
       <c r="C142" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="D142" s="22">
+      <c r="D142" s="26">
         <v>16.2</v>
       </c>
       <c r="E142" s="4" t="s">
@@ -13129,10 +13127,10 @@
         <v>133</v>
       </c>
       <c r="O142" s="4" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" ht="145">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -13142,7 +13140,7 @@
       <c r="C143" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="D143" s="22">
+      <c r="D143" s="26">
         <v>15.7</v>
       </c>
       <c r="E143" s="4" t="s">
@@ -13174,10 +13172,10 @@
         <v>133</v>
       </c>
       <c r="O143" s="4" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" ht="203">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -13187,7 +13185,7 @@
       <c r="C144" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="D144" s="22">
+      <c r="D144" s="26">
         <v>16.5</v>
       </c>
       <c r="E144" s="4" t="s">
@@ -13219,10 +13217,10 @@
         <v>133</v>
       </c>
       <c r="O144" s="4" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" ht="101.5">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -13232,7 +13230,7 @@
       <c r="C145" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="D145" s="22">
+      <c r="D145" s="26">
         <v>17</v>
       </c>
       <c r="E145" s="4" t="s">
@@ -13267,7 +13265,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="101.5">
+    <row r="146" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -13277,7 +13275,7 @@
       <c r="C146" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="D146" s="22">
+      <c r="D146" s="26">
         <v>14</v>
       </c>
       <c r="E146" s="4" t="s">
@@ -13312,7 +13310,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="101.5">
+    <row r="147" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -13322,7 +13320,7 @@
       <c r="C147" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="D147" s="22">
+      <c r="D147" s="26">
         <v>13</v>
       </c>
       <c r="E147" s="4" t="s">
@@ -13357,7 +13355,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="101.5">
+    <row r="148" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -13367,7 +13365,7 @@
       <c r="C148" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="D148" s="22">
+      <c r="D148" s="26">
         <v>13</v>
       </c>
       <c r="E148" s="4" t="s">
@@ -13402,7 +13400,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="101.5">
+    <row r="149" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -13412,7 +13410,7 @@
       <c r="C149" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="D149" s="22">
+      <c r="D149" s="26">
         <v>14</v>
       </c>
       <c r="E149" s="4" t="s">
@@ -13447,7 +13445,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="101.5">
+    <row r="150" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -13457,7 +13455,7 @@
       <c r="C150" s="4" t="s">
         <v>1025</v>
       </c>
-      <c r="D150" s="22">
+      <c r="D150" s="26">
         <v>13</v>
       </c>
       <c r="E150" s="4" t="s">
@@ -13641,40 +13639,16 @@
     <hyperlink ref="O2" r:id="rId145" xr:uid="{7AA0F1B5-FF0C-2C43-A316-CB9F182BEF1C}"/>
     <hyperlink ref="O3:O11" r:id="rId146" display="https://www.weltenburger-am-dom.de/" xr:uid="{5E66EB83-28ED-E542-9384-9EBC1B9421AF}"/>
     <hyperlink ref="O85" r:id="rId147" display="https://www.thethai.info/" xr:uid="{7D49AD94-3D54-4C30-BDA7-3CE9BB4BB05B}"/>
-    <hyperlink ref="O86:O93" r:id="rId148" display="https://www.thethai.info/" xr:uid="{D2097363-4CCA-44D3-BCA0-0561B75F90E6}"/>
-    <hyperlink ref="O34" r:id="rId149" display="http://bodega-regensburg.de/" xr:uid="{2BD13812-41F6-453B-B14B-AF7563060294}"/>
-    <hyperlink ref="O35:O38" r:id="rId150" display="http://bodega-regensburg.de/" xr:uid="{93950ED6-F724-4285-960F-93E4E1E9F9B3}"/>
-    <hyperlink ref="O94" r:id="rId151" display="https://www.bar-ravel.de/" xr:uid="{B980E4DF-E3EC-4902-918D-AA3DDC7FDF0B}"/>
-    <hyperlink ref="O95:O101" r:id="rId152" display="https://www.bar-ravel.de/" xr:uid="{FF96306E-FDD6-42AF-8C82-17B9439AD435}"/>
-    <hyperlink ref="O78" r:id="rId153" display="https://boleros-tapas.de/" xr:uid="{266ECAEC-4146-4903-9245-8771DE1C69B2}"/>
-    <hyperlink ref="O79:O84" r:id="rId154" display="https://boleros-tapas.de/" xr:uid="{81D2EB79-F685-434C-AE90-7154FE3F24CE}"/>
-    <hyperlink ref="O64" r:id="rId155" display="https://regensburg.burgerheart.com/" xr:uid="{549184C5-D90D-4B35-A2DB-ADE0A902A5A1}"/>
-    <hyperlink ref="O65:O73" r:id="rId156" display="https://regensburg.burgerheart.com/" xr:uid="{F4BF909C-D212-4E6F-B772-FA79204827FE}"/>
-    <hyperlink ref="O58" r:id="rId157" display="http://www.taverna-stefanos.de/" xr:uid="{F552A4F9-83D6-44BE-B925-CDEA453DFA77}"/>
-    <hyperlink ref="O59:O63" r:id="rId158" display="http://www.taverna-stefanos.de/" xr:uid="{26CCFB1B-2C95-4088-832A-827145E32169}"/>
-    <hyperlink ref="O43" r:id="rId159" display="https://www.papageno-regensburg.de/" xr:uid="{498ED912-8B51-4CE9-B271-2E8051C4F7CE}"/>
-    <hyperlink ref="O44:O57" r:id="rId160" display="https://www.papageno-regensburg.de/" xr:uid="{BCED94EE-C286-452A-A639-F7A775BAED2C}"/>
-    <hyperlink ref="O39" r:id="rId161" display="https://www.hofbraeuhaus-regensburg.de/de/" xr:uid="{E8CFD1FD-D8BD-492B-B9E5-31A7481081D4}"/>
-    <hyperlink ref="O40:O42" r:id="rId162" display="https://www.hofbraeuhaus-regensburg.de/de/" xr:uid="{8DFD68D9-A316-4CDF-8FF7-369ACD698B36}"/>
-    <hyperlink ref="O74:O77" r:id="rId163" display="https://www.hofbraeuhaus-regensburg.de/de/" xr:uid="{3BA3B51E-7570-42A2-8485-87983287AF69}"/>
-    <hyperlink ref="O102" r:id="rId164" display="https://ganesharegensburg.com/7821?utm_source=google&amp;utm_medium=mybusiness&amp;utm_campaign=gb" xr:uid="{C9181610-97FA-49C2-AA17-49462F9A260F}"/>
-    <hyperlink ref="O103:O110" r:id="rId165" display="https://ganesharegensburg.com/7821?utm_source=google&amp;utm_medium=mybusiness&amp;utm_campaign=gb" xr:uid="{563900D0-8403-4F57-97AA-A6F6C0473CB3}"/>
-    <hyperlink ref="O111" r:id="rId166" display="https://tajmahal-regensburg.de/" xr:uid="{64D602DF-B1C4-4A7C-835F-91101DEBB9D3}"/>
-    <hyperlink ref="O112:O115" r:id="rId167" display="https://tajmahal-regensburg.de/" xr:uid="{6400C36A-2C7F-4FCF-A2B5-B940F406D1AF}"/>
-    <hyperlink ref="O116" r:id="rId168" display="https://ricecorn-regensburg.de/" xr:uid="{F98C7C9C-92E9-4175-B070-82831425B236}"/>
-    <hyperlink ref="O117:O128" r:id="rId169" display="https://ricecorn-regensburg.de/" xr:uid="{DFC5B578-7E15-4707-B54D-F1ADBF2E1085}"/>
-    <hyperlink ref="O129" r:id="rId170" display="https://www.peppers-regensburg.de/" xr:uid="{5CD52F48-40F6-45F7-8983-2B832F59A833}"/>
-    <hyperlink ref="O130:O144" r:id="rId171" display="https://www.peppers-regensburg.de/" xr:uid="{CDC72A2A-3222-48B8-B4CF-0F6DAF02962D}"/>
-    <hyperlink ref="J65" r:id="rId172" display="https://old.foodboom.de/media/W1siZiIsIjIwMjEvMDYvMjIvMDkvMjYvMzEvOGI3YWQ1MDMtMGQ5NS00MDU4LWExOGUtZGQ4MGM3OTBjYjlkL3NlbmYta2FydG9mZmVsLXJvZXN0aS1idXJnZXIuanBlZyJdLFsicCIsInRodW1iX3dpdGhfb2Zmc2V0Iix7IndpZHRoIjo5NDAsImhlaWdodCI6ODMwLCJvZmZzZXRfeCI6MjAzMSwib2Zmc2V0X3kiOjE0NDh9XV0?sha=297305145812dd66" xr:uid="{0B9A2A94-058B-4A86-96DF-7AF8E35C07E0}"/>
-    <hyperlink ref="J66" r:id="rId173" xr:uid="{1FC67662-5E96-424F-B2E9-DCC355CA8619}"/>
-    <hyperlink ref="J67" r:id="rId174" xr:uid="{CAF8904B-1E6C-4017-8A32-9EF57DFB8DDB}"/>
-    <hyperlink ref="J133" r:id="rId175" xr:uid="{E8E107E7-EA24-454E-BDF4-603702F4DD6D}"/>
-    <hyperlink ref="J68" r:id="rId176" xr:uid="{BB30625C-DC8D-43EC-B2FF-A800678F5B6F}"/>
+    <hyperlink ref="J65" r:id="rId148" display="https://old.foodboom.de/media/W1siZiIsIjIwMjEvMDYvMjIvMDkvMjYvMzEvOGI3YWQ1MDMtMGQ5NS00MDU4LWExOGUtZGQ4MGM3OTBjYjlkL3NlbmYta2FydG9mZmVsLXJvZXN0aS1idXJnZXIuanBlZyJdLFsicCIsInRodW1iX3dpdGhfb2Zmc2V0Iix7IndpZHRoIjo5NDAsImhlaWdodCI6ODMwLCJvZmZzZXRfeCI6MjAzMSwib2Zmc2V0X3kiOjE0NDh9XV0?sha=297305145812dd66" xr:uid="{0B9A2A94-058B-4A86-96DF-7AF8E35C07E0}"/>
+    <hyperlink ref="J66" r:id="rId149" xr:uid="{1FC67662-5E96-424F-B2E9-DCC355CA8619}"/>
+    <hyperlink ref="J67" r:id="rId150" xr:uid="{CAF8904B-1E6C-4017-8A32-9EF57DFB8DDB}"/>
+    <hyperlink ref="J133" r:id="rId151" xr:uid="{E8E107E7-EA24-454E-BDF4-603702F4DD6D}"/>
+    <hyperlink ref="J68" r:id="rId152" xr:uid="{BB30625C-DC8D-43EC-B2FF-A800678F5B6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId177"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId153"/>
   <tableParts count="1">
-    <tablePart r:id="rId178"/>
+    <tablePart r:id="rId154"/>
   </tableParts>
 </worksheet>
 </file>
@@ -13687,15 +13661,15 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.81640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="74.08984375" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="74.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="21" customHeight="1">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1030</v>
       </c>
@@ -13709,7 +13683,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="37" customHeight="1">
+    <row r="2" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -13723,7 +13697,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="37" customHeight="1">
+    <row r="3" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -13737,7 +13711,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32" customHeight="1">
+    <row r="4" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -13751,7 +13725,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32" customHeight="1">
+    <row r="5" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -13765,31 +13739,31 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D14" s="3"/>
     </row>
   </sheetData>
@@ -13804,19 +13778,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC55C975-5D1C-6E41-9916-C5BD900D32CB}">
   <dimension ref="A1:J217"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="171" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="3" customWidth="1"/>
-    <col min="2" max="3" width="30.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="30.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1042</v>
       </c>
@@ -13833,7 +13807,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -13849,13 +13823,13 @@
       <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -13872,7 +13846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -13889,7 +13863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -13906,7 +13880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -13923,7 +13897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -13940,7 +13914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -13957,7 +13931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -13974,7 +13948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -13991,7 +13965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -14008,7 +13982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -14025,7 +13999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -14042,7 +14016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -14059,7 +14033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -14076,7 +14050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -14093,7 +14067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -14110,7 +14084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -14127,7 +14101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -14144,7 +14118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -14161,7 +14135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -14178,7 +14152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -14195,7 +14169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -14212,7 +14186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -14229,7 +14203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -14246,7 +14220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -14263,7 +14237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -14280,7 +14254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -14297,7 +14271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -14314,7 +14288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -14331,7 +14305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -14348,7 +14322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -14365,7 +14339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -14382,7 +14356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -14399,7 +14373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -14416,7 +14390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -14433,7 +14407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -14450,7 +14424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -14467,7 +14441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -14484,7 +14458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -14501,7 +14475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -14518,7 +14492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -14535,7 +14509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -14552,7 +14526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -14569,7 +14543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -14586,7 +14560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -14603,7 +14577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -14620,7 +14594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -14637,7 +14611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -14654,7 +14628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -14671,7 +14645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -14688,7 +14662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -14705,7 +14679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -14722,7 +14696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -14739,7 +14713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -14756,7 +14730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -14773,7 +14747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -14790,7 +14764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -14807,7 +14781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -14824,7 +14798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -14841,7 +14815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -14858,7 +14832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -14875,7 +14849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -14892,7 +14866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -14909,7 +14883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -14926,7 +14900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -14943,7 +14917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -14960,7 +14934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -14977,7 +14951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -14994,7 +14968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -15011,7 +14985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -15028,7 +15002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -15045,7 +15019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -15062,7 +15036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -15079,7 +15053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -15096,7 +15070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -15113,7 +15087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -15130,7 +15104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -15147,7 +15121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -15164,7 +15138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -15181,7 +15155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -15198,7 +15172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -15215,7 +15189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -15232,7 +15206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -15249,7 +15223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -15266,7 +15240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -15283,7 +15257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -15300,7 +15274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -15317,7 +15291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -15334,7 +15308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -15351,7 +15325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -15368,7 +15342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -15385,7 +15359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -15402,7 +15376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -15419,7 +15393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -15436,7 +15410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -15453,7 +15427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -15470,7 +15444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -15487,7 +15461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -15504,7 +15478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -15521,7 +15495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -15538,7 +15512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -15555,7 +15529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -15572,7 +15546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -15589,7 +15563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -15606,7 +15580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -15623,7 +15597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -15640,7 +15614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -15657,7 +15631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -15674,7 +15648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -15691,7 +15665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -15708,7 +15682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -15725,7 +15699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -15742,7 +15716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -15759,7 +15733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -15776,7 +15750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -15793,7 +15767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -15810,7 +15784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -15827,7 +15801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -15844,7 +15818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -15861,7 +15835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -15878,7 +15852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -15895,7 +15869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -15912,7 +15886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -15929,7 +15903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -15946,7 +15920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -15963,7 +15937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -15980,7 +15954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -15997,7 +15971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -16014,7 +15988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -16031,7 +16005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -16048,7 +16022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -16065,7 +16039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -16082,7 +16056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -16099,7 +16073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -16116,7 +16090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -16133,7 +16107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -16150,7 +16124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -16167,7 +16141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -16184,7 +16158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -16201,7 +16175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -16218,7 +16192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -16235,7 +16209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -16252,7 +16226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -16269,7 +16243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -16286,7 +16260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -16303,7 +16277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -16320,7 +16294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -16337,7 +16311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -16354,7 +16328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -16371,7 +16345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -16388,7 +16362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -16402,7 +16376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -16416,7 +16390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -16430,7 +16404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -16444,7 +16418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -16458,7 +16432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -16472,7 +16446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -16486,7 +16460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -16500,7 +16474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -16514,7 +16488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -16528,7 +16502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -16542,7 +16516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -16556,7 +16530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -16570,7 +16544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -16584,7 +16558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -16598,7 +16572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -16612,7 +16586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -16626,7 +16600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -16640,7 +16614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -16654,7 +16628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -16668,7 +16642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -16682,7 +16656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -16696,7 +16670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -16710,7 +16684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -16724,7 +16698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -16738,7 +16712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -16752,7 +16726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -16766,7 +16740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -16780,7 +16754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -16794,7 +16768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -16808,7 +16782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -16822,7 +16796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -16836,7 +16810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -16850,7 +16824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -16864,7 +16838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -16878,7 +16852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -16892,7 +16866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -16906,7 +16880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -16920,7 +16894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -16934,7 +16908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -16948,7 +16922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -16962,7 +16936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>192</v>
       </c>
@@ -16976,7 +16950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>193</v>
       </c>
@@ -16990,7 +16964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>194</v>
       </c>
@@ -17004,7 +16978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -17018,7 +16992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>196</v>
       </c>
@@ -17032,7 +17006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>197</v>
       </c>
@@ -17046,7 +17020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -17060,7 +17034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>199</v>
       </c>
@@ -17074,7 +17048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>200</v>
       </c>
@@ -17091,7 +17065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>201</v>
       </c>
@@ -17108,7 +17082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -17125,7 +17099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>203</v>
       </c>
@@ -17142,7 +17116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>204</v>
       </c>
@@ -17159,7 +17133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>205</v>
       </c>
@@ -17176,7 +17150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -17193,7 +17167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>207</v>
       </c>
@@ -17210,7 +17184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -17227,7 +17201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -17244,7 +17218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -17261,7 +17235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>211</v>
       </c>
@@ -17278,7 +17252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>212</v>
       </c>
@@ -17295,7 +17269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>213</v>
       </c>
@@ -17312,7 +17286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -17329,7 +17303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>215</v>
       </c>
@@ -17346,7 +17320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -17382,12 +17356,12 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="18.36328125" style="20" customWidth="1"/>
+    <col min="1" max="4" width="18.33203125" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>1251</v>
       </c>
@@ -17401,7 +17375,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -17415,7 +17389,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -17429,7 +17403,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -17443,7 +17417,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -17457,7 +17431,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -17471,7 +17445,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -17485,7 +17459,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -17499,7 +17473,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -17513,7 +17487,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -17527,7 +17501,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -17541,7 +17515,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -17555,7 +17529,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -17569,7 +17543,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -17583,7 +17557,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -17597,7 +17571,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -17611,7 +17585,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -17625,7 +17599,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -17639,7 +17613,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -17653,7 +17627,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -17667,7 +17641,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -17681,7 +17655,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -17711,13 +17685,13 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1252</v>
       </c>
@@ -17725,7 +17699,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17733,7 +17707,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17741,7 +17715,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -17749,7 +17723,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -17757,7 +17731,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -17765,7 +17739,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -17773,7 +17747,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -17781,7 +17755,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -17805,14 +17779,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.08984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="60.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1254</v>
       </c>
@@ -17820,7 +17794,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -17828,7 +17802,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -17836,7 +17810,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -17844,7 +17818,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -17852,7 +17826,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -17860,7 +17834,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -17868,7 +17842,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -17876,7 +17850,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -17884,7 +17858,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -17892,7 +17866,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -17901,7 +17875,7 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -17909,7 +17883,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -17917,7 +17891,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -17925,7 +17899,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -17933,7 +17907,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -17941,7 +17915,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -17949,7 +17923,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -17957,7 +17931,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -17965,7 +17939,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -17973,7 +17947,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -17981,7 +17955,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -17989,7 +17963,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -17997,7 +17971,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -18005,7 +17979,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -18013,7 +17987,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -18021,7 +17995,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -18029,7 +18003,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -18037,7 +18011,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -18045,7 +18019,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -18053,7 +18027,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -18061,7 +18035,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -18069,7 +18043,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -18077,7 +18051,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -18085,7 +18059,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -18093,7 +18067,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -18101,7 +18075,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -18109,7 +18083,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -18117,7 +18091,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -18125,7 +18099,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -18133,7 +18107,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -18141,7 +18115,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -18149,7 +18123,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -18157,7 +18131,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -18165,7 +18139,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -18173,7 +18147,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -18181,7 +18155,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -18189,7 +18163,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -18197,7 +18171,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -18217,19 +18191,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA84880-E797-490C-B6C8-7F8FA112873A}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.36328125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>1255</v>
       </c>
@@ -18246,7 +18220,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="38.25" customHeight="1">
+    <row r="2" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18263,7 +18237,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="38.25" customHeight="1">
+    <row r="3" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18280,7 +18254,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="38.25" customHeight="1">
+    <row r="4" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18297,7 +18271,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="38.25" customHeight="1">
+    <row r="5" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18314,7 +18288,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="38.25" customHeight="1">
+    <row r="6" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18331,7 +18305,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="38.25" customHeight="1">
+    <row r="7" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -18348,7 +18322,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="38.25" customHeight="1">
+    <row r="8" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -18365,7 +18339,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="38.25" customHeight="1">
+    <row r="9" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -18382,7 +18356,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="38.25" customHeight="1">
+    <row r="10" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -18399,7 +18373,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="38.25" customHeight="1">
+    <row r="11" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -18416,7 +18390,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="38.25" customHeight="1">
+    <row r="12" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -18433,7 +18407,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="38.25" customHeight="1">
+    <row r="13" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -18450,7 +18424,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="38.25" customHeight="1">
+    <row r="14" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -18467,7 +18441,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="44.25" customHeight="1">
+    <row r="15" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -18484,7 +18458,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="38.25" customHeight="1">
+    <row r="16" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -18501,7 +18475,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="38.25" customHeight="1">
+    <row r="17" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -18518,7 +18492,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="38.25" customHeight="1">
+    <row r="18" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -18535,7 +18509,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="38.25" customHeight="1">
+    <row r="19" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -18552,7 +18526,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="38.25" customHeight="1">
+    <row r="20" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -18569,7 +18543,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="38.25" customHeight="1">
+    <row r="21" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -18586,7 +18560,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="38.25" customHeight="1">
+    <row r="22" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -18603,7 +18577,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="38.25" customHeight="1">
+    <row r="23" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -18620,7 +18594,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="38.25" customHeight="1">
+    <row r="24" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -18637,7 +18611,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="43.5">
+    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -18654,7 +18628,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="43.5">
+    <row r="26" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -18671,7 +18645,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="29">
+    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -18688,7 +18662,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="43.5">
+    <row r="28" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -18705,7 +18679,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="29">
+    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -18722,7 +18696,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="116">
+    <row r="30" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -18739,7 +18713,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="58">
+    <row r="31" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -18756,7 +18730,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="72.5">
+    <row r="32" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -18773,7 +18747,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="43.5">
+    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -18790,7 +18764,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="43.5">
+    <row r="34" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -18807,7 +18781,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="29">
+    <row r="35" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -18824,7 +18798,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="29">
+    <row r="36" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -18841,7 +18815,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="58">
+    <row r="37" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -18858,7 +18832,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="43.5">
+    <row r="38" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -18875,7 +18849,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="29">
+    <row r="39" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -18892,7 +18866,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="29">
+    <row r="40" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -18909,7 +18883,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="58">
+    <row r="41" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -18926,7 +18900,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="72.5">
+    <row r="42" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -18943,7 +18917,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="72.5">
+    <row r="43" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -18960,7 +18934,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="116">
+    <row r="44" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -18977,7 +18951,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="58">
+    <row r="45" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -18994,7 +18968,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="43.5">
+    <row r="46" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -19011,7 +18985,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="43.5">
+    <row r="47" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -19028,7 +19002,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="58">
+    <row r="48" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -19045,7 +19019,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="29">
+    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -19062,7 +19036,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="58">
+    <row r="50" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -19079,7 +19053,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="29">
+    <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -19096,7 +19070,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="43.5">
+    <row r="52" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -19178,18 +19152,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7676E93-61D2-C540-86CA-3A4648138FB3}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView zoomScale="168" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1363</v>
       </c>
@@ -19200,7 +19174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -19211,7 +19185,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -19222,7 +19196,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -19231,7 +19205,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -19240,7 +19214,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -19249,7 +19223,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -19260,7 +19234,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -19269,7 +19243,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -19280,7 +19254,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -19289,7 +19263,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -19298,7 +19272,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -19307,7 +19281,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -19318,7 +19292,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -19329,7 +19303,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -19340,7 +19314,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -19351,7 +19325,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -19360,7 +19334,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -19369,7 +19343,7 @@
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -19380,20 +19354,20 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="12"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C24" s="3"/>
     </row>
   </sheetData>
